--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.398</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.633</v>
+        <v>28.284</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.545</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.015</v>
+        <v>28.174</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.575</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.851</v>
+        <v>27.869</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.009482978453356</v>
+        <v>27.09102272245652</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.94747311335852</v>
+        <v>27.09102275671078</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.256161147547</v>
+        <v>27.09102276725618</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.070535172212175</v>
+        <v>27.09102272502413</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.83090349210047</v>
+        <v>27.091022763814</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.84423842019076</v>
+        <v>27.09102277575572</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.186925684037575</v>
+        <v>27.09102273315169</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.20869289067108</v>
+        <v>27.0910227677246</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.56321894524697</v>
+        <v>27.0910227783681</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.29513606916903</v>
+        <v>27.09102278146252</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.91774266795318</v>
+        <v>27.09102279854363</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.91503791287985</v>
+        <v>27.09102280440174</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.954468406086079</v>
+        <v>27.0910227553112</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.02687162636633</v>
+        <v>27.09102279748148</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.02079744977485</v>
+        <v>27.09102281009472</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.158194432474851</v>
+        <v>27.09102278604848</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.97773470933148</v>
+        <v>27.09102282489457</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.47233002225321</v>
+        <v>27.09102283720548</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.901865681263086</v>
+        <v>27.09102278808439</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.06093006237131</v>
+        <v>27.0910228320741</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.41476649693313</v>
+        <v>27.0910228460151</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.2549293592987</v>
+        <v>27.09102280084387</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.19182156604366</v>
+        <v>27.09102284005132</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.061344818549998</v>
+        <v>27.09102273694478</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.55970512836288</v>
+        <v>27.09102277259731</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.91213927242283</v>
+        <v>27.09102278314412</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.976823212080919</v>
+        <v>27.09102274145274</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.37136906653318</v>
+        <v>27.09102278182603</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.43407788022137</v>
+        <v>27.09102279376935</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.32984020644892</v>
+        <v>27.09102275023002</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.91620083145625</v>
+        <v>27.0910227862142</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.31468816559112</v>
+        <v>27.09102279685913</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.18140761192153</v>
+        <v>27.091022799909</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.9841023545811</v>
+        <v>27.09102281739887</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.03834380409724</v>
+        <v>27.09102282325859</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>14.27783330185732</v>
+        <v>27.09102277231684</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.05691053800402</v>
+        <v>27.09102281620317</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>39.09859040708135</v>
+        <v>27.09102282876861</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.32963725271129</v>
+        <v>27.09102280434429</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.79786283169877</v>
+        <v>27.0910228447691</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.3670223079892</v>
+        <v>27.09102285711257</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.065609898721675</v>
+        <v>27.09102280859278</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.95885706441019</v>
+        <v>27.09102285437023</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.39693679994271</v>
+        <v>27.09102286834811</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>35.3247688092159</v>
+        <v>27.09102286297857</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.06991119911195</v>
+        <v>27.09102274068591</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.59846478290879</v>
+        <v>27.09102277619788</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.91775761871552</v>
+        <v>27.09102278663028</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.259985875840634</v>
+        <v>27.09102274569391</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.68886571904762</v>
+        <v>27.09102278590802</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.71398749437697</v>
+        <v>27.09102279772178</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.61668742235431</v>
+        <v>27.09102275444062</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.23370368320732</v>
+        <v>27.09102279028292</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.59872264220789</v>
+        <v>27.09102280081238</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>30.5343728592644</v>
+        <v>27.09102280374169</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>37.32616137690185</v>
+        <v>27.0910228210934</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.36063624759456</v>
+        <v>27.09102282689396</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.60163743234343</v>
+        <v>27.0910227761618</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.42676390769316</v>
+        <v>27.09102281988709</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>40.4211071699888</v>
+        <v>27.09102283230831</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.59797898228616</v>
+        <v>27.09102280802693</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.08371578888116</v>
+        <v>27.09102284828345</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.61641050037269</v>
+        <v>27.09102286050887</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.666568643535651</v>
+        <v>27.09102281283637</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30.57976250826428</v>
+        <v>27.09102285842326</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.97650386478265</v>
+        <v>27.09102287226744</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.34093951401854</v>
+        <v>27.09102282635784</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.94929295608808</v>
+        <v>27.09102286698884</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>8.920962202438499</v>
+        <v>27.09102272876195</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.41283565959685</v>
+        <v>27.09102276376262</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.75492930683106</v>
+        <v>27.09102277437903</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5.423943385380689</v>
+        <v>27.0910227327254</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.81083528420949</v>
+        <v>27.09102277236052</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.86186756592712</v>
+        <v>27.09102278438264</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>11.89441659233655</v>
+        <v>27.09102274102884</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.47385554518209</v>
+        <v>27.09102277635511</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.86193149539471</v>
+        <v>27.09102278707027</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.74061371716713</v>
+        <v>27.09102278991233</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>35.58021244310228</v>
+        <v>27.09102280719096</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.62077098554619</v>
+        <v>27.09102281310063</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13.78618757532933</v>
+        <v>27.09102276296916</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.53846366379523</v>
+        <v>27.09102280608812</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>38.57634789786952</v>
+        <v>27.09102281876594</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>12.95405868971665</v>
+        <v>27.09102279425457</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>31.4431011841983</v>
+        <v>27.09102283393565</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.0028281497598</v>
+        <v>27.09102284636043</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.210060315252214</v>
+        <v>27.09102279784347</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.12658841458144</v>
+        <v>27.09102284277872</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.55401978738186</v>
+        <v>27.09102285684868</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.01225967148245</v>
+        <v>27.09102281083183</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.62336901548846</v>
+        <v>27.09102285088203</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.7390894440001</v>
+        <v>27.09102285247675</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.54595984048131</v>
+        <v>27.09102285140563</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>39.95638289728553</v>
+        <v>27.09102287121839</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.03091979990349</v>
+        <v>27.09102287816203</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13.75781887629282</v>
+        <v>27.091022820105</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.32638389021383</v>
+        <v>27.09102286848833</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>44.42288703186554</v>
+        <v>27.09102288303571</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>12.20759436780544</v>
+        <v>27.09102283569282</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>30.98228600416715</v>
+        <v>27.09102287433259</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37.61172513718289</v>
+        <v>27.09102288638484</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.400556891112117</v>
+        <v>27.09102283828799</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.64006280662923</v>
+        <v>27.09102288204406</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.14751764224771</v>
+        <v>27.09102289569215</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.06877020329711</v>
+        <v>27.09102285282132</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>35.96897634229359</v>
+        <v>27.09102289182054</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.65194926988217</v>
+        <v>27.0910229039849</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.95936665431788</v>
+        <v>27.09102290092363</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>49.74322060902652</v>
+        <v>27.09102292043879</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.8974308459639</v>
+        <v>27.09102292675854</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.79723104693504</v>
+        <v>27.09102286856853</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.46360342148941</v>
+        <v>27.09102291653494</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.66755581962876</v>
+        <v>27.091022930787</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.94704383903133</v>
+        <v>27.09102287543687</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>37.80820794126571</v>
+        <v>27.09102287403025</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>47.42687138386925</v>
+        <v>27.09102289430383</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>52.58316110837789</v>
+        <v>27.09102290125175</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.41105020786423</v>
+        <v>27.09102284117234</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>43.80243592581957</v>
+        <v>27.09102289149371</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.98253701455835</v>
+        <v>27.09102290601791</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.12161280205806</v>
+        <v>27.0910228553717</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.53346690751363</v>
+        <v>27.09102289557257</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.22494786078352</v>
+        <v>27.09102290762436</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>14.29032764974711</v>
+        <v>27.09102286009756</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.25094581792585</v>
+        <v>27.09102290562144</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.82848402364151</v>
+        <v>27.09102291926901</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.32553097382702</v>
+        <v>27.09102287548637</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.86770388476607</v>
+        <v>27.09102291606121</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>50.6130951756288</v>
+        <v>27.09102292822511</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.97917292981666</v>
+        <v>27.09102292476551</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>57.96129451989591</v>
+        <v>27.09102294472171</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>63.18732950530796</v>
+        <v>27.09102295103119</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.19051807542534</v>
+        <v>27.09102289085824</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.65905881113204</v>
+        <v>27.09102294072444</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>61.93620204803184</v>
+        <v>27.09102295491341</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>43.53476777534624</v>
+        <v>27.09102287932798</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.45480286915424</v>
+        <v>27.09102287777363</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>49.04434025795017</v>
+        <v>27.0910228978784</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>54.17640036896694</v>
+        <v>27.09102290476058</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.03858344442393</v>
+        <v>27.09102284498141</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>45.45587981152934</v>
+        <v>27.09102289510096</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>19.56804019262832</v>
+        <v>27.09102285883208</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>38.98544995340573</v>
+        <v>27.09102289887335</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>45.63429520435403</v>
+        <v>27.09102291079737</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.05057371425396</v>
+        <v>27.09102286409084</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.01760383152097</v>
+        <v>27.09102290943399</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>45.54681114248828</v>
+        <v>27.09102292293687</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.09193706270315</v>
+        <v>27.09102287940593</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.63989453050663</v>
+        <v>27.09102291981968</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>52.34227494509219</v>
+        <v>27.09102293185462</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>49.75364099353519</v>
+        <v>27.09102292826171</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>59.69992692772718</v>
+        <v>27.09102294805103</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>64.89840792950109</v>
+        <v>27.09102295429673</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>30.95426909614153</v>
+        <v>27.09102289441887</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>55.43265706708789</v>
+        <v>27.09102294409267</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>63.65558054666398</v>
+        <v>27.09102295811921</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>41.2361283675902</v>
+        <v>27.0910228634224</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.16051288250096</v>
+        <v>27.09102286187479</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.85211141433172</v>
+        <v>27.0910228818942</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>51.99019032441154</v>
+        <v>27.0910228889089</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>19.67716490681376</v>
+        <v>27.09102282975179</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.08103561045912</v>
+        <v>27.09102287919355</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>51.25494398279605</v>
+        <v>27.09102289384777</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>17.25782439256765</v>
+        <v>27.09102284501756</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.7018449819835</v>
+        <v>27.09102288451066</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>43.38797833207916</v>
+        <v>27.09102289664844</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>12.96998473111062</v>
+        <v>27.09102284913634</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.96671724298948</v>
+        <v>27.09102289385873</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42.53822357424662</v>
+        <v>27.09102290760367</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>23.12346934562369</v>
+        <v>27.09102286392885</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.69769422782969</v>
+        <v>27.09102290378933</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.43765549897269</v>
+        <v>27.09102291604002</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>46.8841645642421</v>
+        <v>27.09102291247251</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>56.94315533176197</v>
+        <v>27.09102293219061</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>62.15819191594096</v>
+        <v>27.09102293856898</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.01865441861667</v>
+        <v>27.09102287925114</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.51624974036982</v>
+        <v>27.09102292828937</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.79063005680808</v>
+        <v>27.09102294261415</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>13.66822852804304</v>
+        <v>27.09102273262726</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.6024610869548</v>
+        <v>27.09102276687781</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.29105963729339</v>
+        <v>27.09102277692861</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>9.730163724754663</v>
+        <v>27.09102273466486</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.61985557988511</v>
+        <v>27.09102277345054</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.93132387237016</v>
+        <v>27.09102278483216</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.6676722480738</v>
+        <v>27.09102274343917</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.69521493112061</v>
+        <v>27.09102277800834</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36.42455207434666</v>
+        <v>27.09102278815264</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.76279660931833</v>
+        <v>27.09102279016444</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>39.61938894419993</v>
+        <v>27.09102280700811</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.07828673427485</v>
+        <v>27.09102281247336</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.09359675195648</v>
+        <v>27.09102276343366</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.26433370608797</v>
+        <v>27.09102280553971</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>41.44419393611921</v>
+        <v>27.09102281757617</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>16.62962497307579</v>
+        <v>27.09102279393764</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.2918619290406</v>
+        <v>27.09102283276299</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.02600157802399</v>
+        <v>27.09102284442629</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>10.2557702824129</v>
+        <v>27.09102279541024</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.36995052726461</v>
+        <v>27.09102283937646</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>37.86301403017559</v>
+        <v>27.0910228525841</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.56340064004171</v>
+        <v>27.09102280882471</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.35100330155675</v>
+        <v>27.09102284801122</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.54063452422884</v>
+        <v>27.09102274656027</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.04080428415173</v>
+        <v>27.09102278218012</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>37.76179130356624</v>
+        <v>27.09102279223213</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>14.44386665708736</v>
+        <v>27.09102275047386</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.97404051017349</v>
+        <v>27.09102279081014</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>37.32203814771445</v>
+        <v>27.09102280219315</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.60452360851695</v>
+        <v>27.09102275983535</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>37.20229430657139</v>
+        <v>27.09102279578655</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>41.96414937952767</v>
+        <v>27.09102280593208</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>38.43410291664465</v>
+        <v>27.09102280787319</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.47383450532675</v>
+        <v>27.09102282511052</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.97948293590452</v>
+        <v>27.09102283058859</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.20130489728538</v>
+        <v>27.09102277973071</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.08534891152121</v>
+        <v>27.09102282351247</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>47.29771250166645</v>
+        <v>27.09102283550654</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>21.60484617731066</v>
+        <v>27.09102281154968</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.91969334745617</v>
+        <v>27.0910228519187</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>46.71401305513795</v>
+        <v>27.09102286360981</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>16.20761643962516</v>
+        <v>27.09102281516043</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>38.06041731392451</v>
+        <v>27.09102286087471</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>44.62145697599166</v>
+        <v>27.09102287411384</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.81602602197965</v>
+        <v>27.09102282932946</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.2612185639263</v>
+        <v>27.09102287007401</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.41116354320981</v>
+        <v>27.09102274999516</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>33.93254060234064</v>
+        <v>27.09102278546684</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>38.62295784711204</v>
+        <v>27.09102279541061</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>15.58601817621865</v>
+        <v>27.09102275440064</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.14033615605278</v>
+        <v>27.09102279456913</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>38.45366078864247</v>
+        <v>27.09102280582956</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.73829879396134</v>
+        <v>27.09102276370404</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>38.35765657158461</v>
+        <v>27.09102279950569</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>43.08863773449449</v>
+        <v>27.09102280954196</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.63183549546412</v>
+        <v>27.09102281138003</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>46.65897768728542</v>
+        <v>27.09102282847778</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>50.14718620147942</v>
+        <v>27.0910228339051</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.38242900838891</v>
+        <v>27.09102278326471</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>42.30262986446307</v>
+        <v>27.0910228268758</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>48.47091669696269</v>
+        <v>27.09102283873335</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.73277491498088</v>
+        <v>27.0910228149392</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42.0571834486896</v>
+        <v>27.09102285513349</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>47.81827320605652</v>
+        <v>27.09102286671143</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>17.66554900733379</v>
+        <v>27.09102281910302</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>39.52928153385995</v>
+        <v>27.09102286461943</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>46.05264882926997</v>
+        <v>27.09102287773041</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.26592677006948</v>
+        <v>27.09102283318003</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>46.72094826785798</v>
+        <v>27.09102287374821</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.56330866439696</v>
+        <v>27.09102273846002</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>33.07112280169078</v>
+        <v>27.09102277344028</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>37.77866990767615</v>
+        <v>27.09102278355659</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.06361479253905</v>
+        <v>27.09102274185506</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.60214906416142</v>
+        <v>27.09102278146706</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.93495752580623</v>
+        <v>27.09102279292287</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.35526869337912</v>
+        <v>27.09102275075418</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.96036820376597</v>
+        <v>27.09102278605984</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>41.70868372139202</v>
+        <v>27.09102279627025</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.17646136003887</v>
+        <v>27.09102279804048</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.25637487425763</v>
+        <v>27.09102281507112</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>48.74732794932065</v>
+        <v>27.09102282059351</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.87771786285525</v>
+        <v>27.09102277053541</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>40.75004018591682</v>
+        <v>27.09102281356708</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>46.955028253797</v>
+        <v>27.09102282566268</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.39044422112118</v>
+        <v>27.09102280161179</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.73747012972301</v>
+        <v>27.09102284125756</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>46.51921368601283</v>
+        <v>27.09102285302122</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>15.52047153556826</v>
+        <v>27.09102280460133</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>37.40942982738098</v>
+        <v>27.09102284949659</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>43.95625885422718</v>
+        <v>27.09102286281788</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.27827412612974</v>
+        <v>27.09102281819133</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.75552837483171</v>
+        <v>27.0910228582059</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>44.13163216397451</v>
+        <v>27.09102285978302</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.81806098860403</v>
+        <v>27.09102285804221</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>49.27431956502464</v>
+        <v>27.09102287748676</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>53.71009224743598</v>
+        <v>27.09102288393023</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.85998544726352</v>
+        <v>27.0910228264033</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>45.30497285101305</v>
+        <v>27.09102287465371</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>52.46487268629107</v>
+        <v>27.09102288848491</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.30983706147261</v>
+        <v>27.09102284253989</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>39.89826504030489</v>
+        <v>27.09102288115857</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>45.72753225135004</v>
+        <v>27.09102289253631</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>15.31470837033894</v>
+        <v>27.09102284464399</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>37.47655332101202</v>
+        <v>27.09102288837618</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>44.07835345695896</v>
+        <v>27.09102290126045</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.9282030107384</v>
+        <v>27.09102285980357</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>45.64995895683413</v>
+        <v>27.09102289878149</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>51.5263377185932</v>
+        <v>27.09102291026507</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>48.67631897922297</v>
+        <v>27.0910229067053</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>58.50497054765465</v>
+        <v>27.09102292582386</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>63.0468040572541</v>
+        <v>27.09102293169336</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.46476967946244</v>
+        <v>27.09102287407974</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>54.00855920739998</v>
+        <v>27.09102292192524</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>61.22695764990933</v>
+        <v>27.09102293541373</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>51.10236094873174</v>
+        <v>27.09102288187387</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.84583815091483</v>
+        <v>27.09102287979283</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.51047182703086</v>
+        <v>27.09102289967834</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>61.01550642700239</v>
+        <v>27.09102290613644</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.27688047627473</v>
+        <v>27.09102284663197</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>52.54889419915181</v>
+        <v>27.09102289677012</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>59.7740367558046</v>
+        <v>27.09102291057886</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.01240945119399</v>
+        <v>27.09102286151773</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46.24266638590427</v>
+        <v>27.09102290166185</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>52.11756616541194</v>
+        <v>27.09102291303179</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21.98327298564853</v>
+        <v>27.09102286568757</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.87150972191323</v>
+        <v>27.09102291114718</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>51.52483326780063</v>
+        <v>27.09102292402261</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>32.94639870293756</v>
+        <v>27.09102288163067</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>53.31484734309113</v>
+        <v>27.09102292214823</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>59.23711019361487</v>
+        <v>27.09102293362394</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>56.45173529226006</v>
+        <v>27.09102292966921</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>66.47871574881086</v>
+        <v>27.09102294921316</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>71.07959144832262</v>
+        <v>27.09102295507913</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.6141319228954</v>
+        <v>27.0910228955314</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>61.965758628822</v>
+        <v>27.09102294522697</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>69.23663730879841</v>
+        <v>27.09102295864885</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52.52855337227582</v>
+        <v>27.09102288543385</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>48.33417737494106</v>
+        <v>27.09102288322015</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>57.9689055637519</v>
+        <v>27.09102290293786</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>62.4525417521786</v>
+        <v>27.09102290933805</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.75676874712154</v>
+        <v>27.09102285013596</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>54.04631035461824</v>
+        <v>27.09102290006423</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>61.22606844742911</v>
+        <v>27.09102291372827</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.31506902020092</v>
+        <v>27.09102286468445</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>47.5436695716953</v>
+        <v>27.0910229046632</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>53.37904462202795</v>
+        <v>27.09102291591001</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>23.59932042616278</v>
+        <v>27.09102286938058</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.48578955162057</v>
+        <v>27.09102291465292</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>53.09430848777445</v>
+        <v>27.09102292738893</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.5541200189119</v>
+        <v>27.09102288522181</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>54.92107557116989</v>
+        <v>27.09102292557246</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>60.8034657016075</v>
+        <v>27.0910229369239</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>58.06760999072322</v>
+        <v>27.09102293284993</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>68.05825221348154</v>
+        <v>27.09102295222997</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>72.63401234837508</v>
+        <v>27.09102295803847</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.22954835465683</v>
+        <v>27.09102289878784</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>63.58342864257032</v>
+        <v>27.09102294828456</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>70.80366921895703</v>
+        <v>27.09102296154945</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.58398487358023</v>
+        <v>27.09102287007898</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>46.3775680264901</v>
+        <v>27.09102286788297</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>56.11567576820113</v>
+        <v>27.09102288752691</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>60.60235578386332</v>
+        <v>27.09102289404176</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.71185688033437</v>
+        <v>27.09102283543661</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>52.00811103679128</v>
+        <v>27.09102288472378</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>59.22366467768941</v>
+        <v>27.09102289864773</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.31206364718654</v>
+        <v>27.09102285129372</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>45.58445667066442</v>
+        <v>27.0910228907527</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>51.45114174769537</v>
+        <v>27.09102290219998</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>20.82948889824697</v>
+        <v>27.09102285489197</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.76513941439177</v>
+        <v>27.09102289957571</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>50.40918379613626</v>
+        <v>27.09102291253874</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>31.9275496617672</v>
+        <v>27.0910228702572</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>52.33810430820294</v>
+        <v>27.09102291008324</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>58.25204610569554</v>
+        <v>27.09102292163701</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.53330900886871</v>
+        <v>27.09102291759803</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>65.63783333715654</v>
+        <v>27.09102293691516</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>70.22795955186396</v>
+        <v>27.09102294284106</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>35.60954456983745</v>
+        <v>27.09102288412451</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>61.00046641116795</v>
+        <v>27.0910229330241</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>68.26541664661266</v>
+        <v>27.09102294656712</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>2.575830983961087</v>
+        <v>27.09102271531808</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.37899640829401</v>
+        <v>27.09102275006594</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.7542172452286</v>
+        <v>27.09102276084868</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1.629106828244893</v>
+        <v>27.09102271756071</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13.97811921334491</v>
+        <v>27.09102275690953</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>20.06664302188533</v>
+        <v>27.09102276912003</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>4.565210611121277</v>
+        <v>27.09102272578501</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>18.450390161955</v>
+        <v>27.09102276085611</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>23.8719698313284</v>
+        <v>27.09102277173916</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.83981824376184</v>
+        <v>27.09102277527158</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.37435460983394</v>
+        <v>27.09102279263655</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>31.41411706372872</v>
+        <v>27.0910227986184</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>6.522964166698461</v>
+        <v>27.09102274889027</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.45560250560131</v>
+        <v>27.09102279169227</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.53202225637807</v>
+        <v>27.09102280459275</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>4.477466412725018</v>
+        <v>27.09102277920552</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.19742401654825</v>
+        <v>27.0910228186259</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.85186503713321</v>
+        <v>27.09102283122178</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-2.104701191399418</v>
+        <v>27.09102278087004</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.94116896794146</v>
+        <v>27.09102282551008</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.47594365878455</v>
+        <v>27.09102283977379</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>6.298622955839644</v>
+        <v>27.09102279378688</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.13447423755654</v>
+        <v>27.09102283357396</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>6.654760588570383</v>
+        <v>27.09102273000794</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.02369273858078</v>
+        <v>27.09102276617713</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.44641478323691</v>
+        <v>27.09102277697133</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>3.325660484177941</v>
+        <v>27.0910227342326</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.57316075414369</v>
+        <v>27.09102277519095</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.71530734030227</v>
+        <v>27.09102278741441</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>9.757887754837361</v>
+        <v>27.09102274311832</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.21308870537099</v>
+        <v>27.09102277962396</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.68241333831288</v>
+        <v>27.09102279051858</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.78927599603626</v>
+        <v>27.09102279400488</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>33.50600505552103</v>
+        <v>27.09102281178602</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.60480806016159</v>
+        <v>27.09102281777345</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>11.90324856726864</v>
+        <v>27.09102276615809</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.55016931601074</v>
+        <v>27.09102281070676</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.6782073628635</v>
+        <v>27.09102282357078</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>9.694213756407056</v>
+        <v>27.09102279781663</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.07016259770639</v>
+        <v>27.09102283884262</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.8047839227949</v>
+        <v>27.09102285148352</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>4.128404243519469</v>
+        <v>27.091022801739</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.91671654361914</v>
+        <v>27.09102284819725</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.54209047024273</v>
+        <v>27.09102286251193</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>12.85070296701108</v>
+        <v>27.09102281549796</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.34751867781677</v>
+        <v>27.0910228569056</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.682725262111191</v>
+        <v>27.09102273385582</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.08437238187879</v>
+        <v>27.09102276988148</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.47489581189222</v>
+        <v>27.09102278056131</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>4.635954000562737</v>
+        <v>27.09102273859183</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.92064409267836</v>
+        <v>27.09102277938765</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.02627178672939</v>
+        <v>27.09102279148161</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.07135192781595</v>
+        <v>27.09102274744608</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.55975340109569</v>
+        <v>27.09102278380686</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>30.9965599751703</v>
+        <v>27.09102279458605</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.17133262208553</v>
+        <v>27.0910227979434</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>34.87846212065025</v>
+        <v>27.09102281558379</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.95800095718216</v>
+        <v>27.091022821512</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>13.25410820246659</v>
+        <v>27.09102277010803</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>30.9502589296219</v>
+        <v>27.09102281449234</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.03186972340558</v>
+        <v>27.09102282721199</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.99793031293807</v>
+        <v>27.09102280162606</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.39409157295347</v>
+        <v>27.09102284248039</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.0928560903032</v>
+        <v>27.09102285500352</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>5.773791763630225</v>
+        <v>27.09102280612332</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.58511001228733</v>
+        <v>27.09102285238718</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.16983334164699</v>
+        <v>27.09102286656851</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>14.50213052248011</v>
+        <v>27.09102281981789</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>33.01952242590125</v>
+        <v>27.09102286105226</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.529367346635329</v>
+        <v>27.09102272165665</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>20.88890936321335</v>
+        <v>27.09102275716002</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.29933133649342</v>
+        <v>27.09102276802073</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>2.779290271981633</v>
+        <v>27.09102272531249</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.01584403469631</v>
+        <v>27.09102276551686</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.14409344494061</v>
+        <v>27.09102277781565</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>9.332557989183268</v>
+        <v>27.09102273371332</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.77790289143221</v>
+        <v>27.09102276954695</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.23484071494984</v>
+        <v>27.0910227805087</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.35754475447307</v>
+        <v>27.09102278377908</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.11018929324522</v>
+        <v>27.091022801344</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.19388175178281</v>
+        <v>27.0910228073811</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.42058061213872</v>
+        <v>27.09102275659684</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.03698123325312</v>
+        <v>27.09102280036029</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.15900514779902</v>
+        <v>27.09102281333333</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>9.312853218792526</v>
+        <v>27.09102278750643</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.70665949731162</v>
+        <v>27.09102282777247</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>34.43060021281565</v>
+        <v>27.09102284049126</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>3.256939550463912</v>
+        <v>27.09102279074769</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.06517736176977</v>
+        <v>27.09102283634537</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>31.67848993527492</v>
+        <v>27.09102285074824</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>12.11546116156451</v>
+        <v>27.09102280389589</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.62989230096717</v>
+        <v>27.0910228445365</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.84290843879279</v>
+        <v>27.09102284628701</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.82593032392969</v>
+        <v>27.09102284556871</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.164465575937</v>
+        <v>27.09102286569683</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>41.33933231377108</v>
+        <v>27.09102287278095</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.03420167520123</v>
+        <v>27.09102281396889</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.52629840492101</v>
+        <v>27.09102286308197</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>40.80821594370212</v>
+        <v>27.09102287797441</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.338216091072965</v>
+        <v>27.09102283083682</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.07336580512091</v>
+        <v>27.09102287008224</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.85386530328216</v>
+        <v>27.09102288237941</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>4.270328629560826</v>
+        <v>27.09102283312576</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.46457628415266</v>
+        <v>27.09102287756767</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.14306504668428</v>
+        <v>27.09102289149311</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>14.0513006577247</v>
+        <v>27.09102284789491</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>32.91095704588293</v>
+        <v>27.0910228875054</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>39.74630730830125</v>
+        <v>27.09102289991696</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>37.25783283941261</v>
+        <v>27.09102289717211</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.9779603148702</v>
+        <v>27.09102291698826</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>52.2276332266959</v>
+        <v>27.09102292342629</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>19.04245726728043</v>
+        <v>27.0910228644607</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>42.69291883757424</v>
+        <v>27.09102291318477</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>51.0758404793741</v>
+        <v>27.09102292772793</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.13661960926105</v>
+        <v>27.09102286966408</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>34.17470387978037</v>
+        <v>27.09102286860048</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.7240971063386</v>
+        <v>27.0910228891971</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.98386354916212</v>
+        <v>27.09102289629088</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.76523228823295</v>
+        <v>27.09102283541448</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.09032572424606</v>
+        <v>27.09102288650055</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>48.46191975373635</v>
+        <v>27.09102290138381</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>15.33558891525838</v>
+        <v>27.09102285089227</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.71519219048798</v>
+        <v>27.09102289172488</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>41.5627348976767</v>
+        <v>27.09102290403184</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.26688912169852</v>
+        <v>27.09102285535611</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.1904925105782</v>
+        <v>27.09102290159536</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.94472558642624</v>
+        <v>27.0910229155319</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.42057695973014</v>
+        <v>27.09102287099993</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.92953808510124</v>
+        <v>27.09102291221237</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>47.83234864602824</v>
+        <v>27.09102292463383</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.40342230386921</v>
+        <v>27.0910229214826</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>55.32417710286936</v>
+        <v>27.09102294174679</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>60.64847295347512</v>
+        <v>27.09102294817867</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.55209258608311</v>
+        <v>27.09102288719056</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>51.01446635036063</v>
+        <v>27.09102293784724</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>59.47605321246631</v>
+        <v>27.09102295233831</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>39.77243531432519</v>
+        <v>27.09102287369189</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.86808004185841</v>
+        <v>27.09102287247126</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>45.3897066358405</v>
+        <v>27.09102289289616</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.6255217442917</v>
+        <v>27.09102289992446</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.43712882274136</v>
+        <v>27.09102283935038</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.79141550092275</v>
+        <v>27.09102289023086</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>50.11438950780686</v>
+        <v>27.09102290496352</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.81976014273719</v>
+        <v>27.09102285446829</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.20713344088288</v>
+        <v>27.0910228951382</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>43.01254767652327</v>
+        <v>27.0910229073173</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.07322345528432</v>
+        <v>27.09102285947897</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.00574727739444</v>
+        <v>27.09102290553399</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.71222324167678</v>
+        <v>27.09102291932572</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.23334514838277</v>
+        <v>27.0910228750479</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.7503263267051</v>
+        <v>27.09102291609614</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>49.61063663544054</v>
+        <v>27.09102292838853</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.22540623577914</v>
+        <v>27.09102292509586</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>57.11161000993425</v>
+        <v>27.0910229451907</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>62.40852856326965</v>
+        <v>27.09102295155882</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.36117523256202</v>
+        <v>27.09102289086767</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>52.8361276327841</v>
+        <v>27.09102294132865</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>61.24390669962438</v>
+        <v>27.09102295565684</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>37.40822062268033</v>
+        <v>27.0910228573736</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.51393598062225</v>
+        <v>27.09102285616457</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>43.13546077263811</v>
+        <v>27.09102287650177</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>48.37589810531314</v>
+        <v>27.09102288366217</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>16.01859399893277</v>
+        <v>27.09102282373116</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.35261057232852</v>
+        <v>27.09102287391744</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>47.7164955329911</v>
+        <v>27.09102288892704</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>14.45888938563415</v>
+        <v>27.09102284029685</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.86796579946899</v>
+        <v>27.09102288040805</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>40.70915281363013</v>
+        <v>27.09102289279737</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>9.92402601663305</v>
+        <v>27.09102284413592</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.88068842361703</v>
+        <v>27.09102288955825</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>39.62774760394726</v>
+        <v>27.09102290358804</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>20.19829708054642</v>
+        <v>27.0910228591685</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.73658728811166</v>
+        <v>27.09102289965282</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>46.63295222788156</v>
+        <v>27.0910229121574</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.2892148485364</v>
+        <v>27.09102290889414</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>54.28582887541739</v>
+        <v>27.09102292891616</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>59.59816830808922</v>
+        <v>27.09102293541658</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.36181636079154</v>
+        <v>27.09102287530294</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>49.84990859246754</v>
+        <v>27.09102292511567</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>58.30745611055703</v>
+        <v>27.09102293973874</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>3.748182000122029</v>
+        <v>27.09102272254135</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.76312283321908</v>
+        <v>27.09102275498602</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.69423174744307</v>
+        <v>27.0910227649751</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.2835296318278395</v>
+        <v>27.09102272443297</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.43282211414006</v>
+        <v>27.09102276117364</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>20.01839971705135</v>
+        <v>27.09102277248538</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.555898178872457</v>
+        <v>27.09102273215361</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.64863195225165</v>
+        <v>27.09102276490009</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>23.6223254912531</v>
+        <v>27.0910227749821</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.78731502271865</v>
+        <v>27.0910227781776</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.91940007113669</v>
+        <v>27.09102279436522</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>30.61613740087842</v>
+        <v>27.09102279988685</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.228358648857277</v>
+        <v>27.09102275345817</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.17595454004546</v>
+        <v>27.09102279341496</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.66454411397771</v>
+        <v>27.09102280536694</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>6.170754590674971</v>
+        <v>27.09102278238874</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.84245653416493</v>
+        <v>27.09102281921375</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.9559855780819</v>
+        <v>27.09102283087602</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-0.04909630711002677</v>
+        <v>27.09102278379038</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>18.81114010919882</v>
+        <v>27.09102282549139</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.73352748243261</v>
+        <v>27.09102283869787</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>7.907091370015035</v>
+        <v>27.09102279592146</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.6881502956567</v>
+        <v>27.09102283308902</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.498011126797874</v>
+        <v>27.09102273612926</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.04201981150158</v>
+        <v>27.09102276989618</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.01612688775564</v>
+        <v>27.09102277989655</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.2825158332234</v>
+        <v>27.09102273986286</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.59761037561108</v>
+        <v>27.09102277810086</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.23172703962801</v>
+        <v>27.09102278942538</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.33963918752218</v>
+        <v>27.09102274818851</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>23.96542354848236</v>
+        <v>27.09102278226954</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.98233457680941</v>
+        <v>27.09102279236294</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.2776961061668</v>
+        <v>27.09102279551387</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>32.58014344995286</v>
+        <v>27.09102281208775</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.33075245308761</v>
+        <v>27.09102281761731</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>12.18742500420217</v>
+        <v>27.09102276943122</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.8029251304647</v>
+        <v>27.09102281101216</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.33784897214998</v>
+        <v>27.09102282293157</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>10.99096169223745</v>
+        <v>27.09102279963543</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.27625005119501</v>
+        <v>27.0910228379546</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>34.46303411912758</v>
+        <v>27.09102284965891</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.719414764480916</v>
+        <v>27.09102280313726</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.27409931768131</v>
+        <v>27.09102284653028</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>32.27926210819921</v>
+        <v>27.09102285978436</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>13.96915210018669</v>
+        <v>27.09102281604136</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.36845349294639</v>
+        <v>27.091022854717</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.442674968520823</v>
+        <v>27.09102273968976</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.01602868177018</v>
+        <v>27.09102277332128</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.96059243198417</v>
+        <v>27.09102278321617</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>5.491432057913336</v>
+        <v>27.09102274390098</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.83988894121615</v>
+        <v>27.09102278198566</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.44049791864944</v>
+        <v>27.09102279319073</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.54966551763442</v>
+        <v>27.09102275219296</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.20523756092849</v>
+        <v>27.09102278613733</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.19231183462682</v>
+        <v>27.09102279612427</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.5515557796447</v>
+        <v>27.09102279915676</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.84476472347563</v>
+        <v>27.09102281559881</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.57781406520086</v>
+        <v>27.09102282107492</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>13.43409161617291</v>
+        <v>27.09102277308741</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.09426066366028</v>
+        <v>27.09102281451309</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.58651970390107</v>
+        <v>27.09102282629931</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.18896152005015</v>
+        <v>27.09102280315737</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.49198767184824</v>
+        <v>27.09102284131493</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.64592979230301</v>
+        <v>27.09102285291043</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>7.236993581171415</v>
+        <v>27.09102280719599</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.81187271261986</v>
+        <v>27.09102285040601</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.77980263939529</v>
+        <v>27.09102286353687</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>15.49003838126185</v>
+        <v>27.09102282003519</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.90740788183052</v>
+        <v>27.09102285854772</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>7.394551008806676</v>
+        <v>27.09102272836612</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>20.93179881541638</v>
+        <v>27.09102276151325</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.89382118734651</v>
+        <v>27.09102277157513</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>3.78623004027407</v>
+        <v>27.09102273157101</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.09337750748609</v>
+        <v>27.09102276910717</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.71383764598179</v>
+        <v>27.09102278050133</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>9.958437717848337</v>
+        <v>27.09102273944651</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.57704246777979</v>
+        <v>27.09102277290199</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.58178199895688</v>
+        <v>27.09102278305747</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.89030721168125</v>
+        <v>27.09102278600967</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.2268402116272</v>
+        <v>27.09102280238205</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.96325698342798</v>
+        <v>27.09102280795727</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>11.75009905658679</v>
+        <v>27.09102276054569</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.33917136910772</v>
+        <v>27.09102280139603</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>34.8678028291519</v>
+        <v>27.09102281341594</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>10.65511350119949</v>
+        <v>27.091022790042</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.95882181679347</v>
+        <v>27.09102282765435</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>34.1351546814474</v>
+        <v>27.09102283943036</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>4.926062593651984</v>
+        <v>27.09102279291124</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.501329961748</v>
+        <v>27.09102283550385</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.49468802466196</v>
+        <v>27.09102284883912</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>13.30587696981192</v>
+        <v>27.09102280524808</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.72338569738232</v>
+        <v>27.09102284321031</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.851314166665</v>
+        <v>27.09102284485979</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.10968005173383</v>
+        <v>27.09102284414265</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.83851395539046</v>
+        <v>27.09102286289668</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>40.58485711104779</v>
+        <v>27.09102286943165</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>11.23448385243815</v>
+        <v>27.09102281457022</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.36541658998701</v>
+        <v>27.09102286043315</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>39.97427536418569</v>
+        <v>27.09102287422956</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>10.69337226238012</v>
+        <v>27.09102283057744</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.31237200192198</v>
+        <v>27.09102286724061</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>34.54815565246781</v>
+        <v>27.09102287862537</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>5.873506751165383</v>
+        <v>27.09102283257617</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.80530957430393</v>
+        <v>27.09102287409392</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.86708254616472</v>
+        <v>27.09102288698614</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.11774960829529</v>
+        <v>27.0910228464356</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>32.85414848894855</v>
+        <v>27.09102288343983</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>39.14044040976976</v>
+        <v>27.09102289493049</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.80711586364374</v>
+        <v>27.09102289233301</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>45.89652440700876</v>
+        <v>27.09102291079277</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>50.72339545301992</v>
+        <v>27.09102291673635</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.62274143585271</v>
+        <v>27.09102286173134</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.84220068717908</v>
+        <v>27.09102290723469</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.5496172591951</v>
+        <v>27.0910229207035</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.60531632437385</v>
+        <v>27.09102286653019</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>33.91614735950629</v>
+        <v>27.0910228654921</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.84174862441429</v>
+        <v>27.09102288468055</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.6659694788884</v>
+        <v>27.09102289122718</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.46353270156481</v>
+        <v>27.09102283444416</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.37346609541103</v>
+        <v>27.09102288214194</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>47.06397698564829</v>
+        <v>27.09102289593062</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.24356018477079</v>
+        <v>27.09102284917692</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.46555400135023</v>
+        <v>27.09102288731704</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.7621838985726</v>
+        <v>27.09102289871094</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>12.35720473504406</v>
+        <v>27.09102285320068</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>32.97144139325822</v>
+        <v>27.09102289639094</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.10195849882855</v>
+        <v>27.09102290929351</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>21.94498948442788</v>
+        <v>27.09102286786351</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.28892585730134</v>
+        <v>27.09102290635842</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.63644242096418</v>
+        <v>27.09102291785832</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.359938359168</v>
+        <v>27.09102291488348</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.63667832279848</v>
+        <v>27.09102293375937</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>58.53178234404029</v>
+        <v>27.09102293969922</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.58149353060811</v>
+        <v>27.09102288281213</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>49.56059283428904</v>
+        <v>27.09102293011287</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.33919231682457</v>
+        <v>27.09102294353367</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>39.11112515093201</v>
+        <v>27.09102287025108</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.47615902120394</v>
+        <v>27.0910228690679</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.37564833758381</v>
+        <v>27.0910228880959</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>49.17806252602327</v>
+        <v>27.09102289458314</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.00526206018503</v>
+        <v>27.09102283808284</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>40.94129015210579</v>
+        <v>27.09102288558697</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>48.58717214244206</v>
+        <v>27.09102289923641</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>17.61006486717265</v>
+        <v>27.09102285248055</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>35.83829841619428</v>
+        <v>27.09102289046759</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.09614615917273</v>
+        <v>27.09102290174321</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>14.02555978299533</v>
+        <v>27.09102285701527</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.64697467170711</v>
+        <v>27.09102290003219</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.73352794118223</v>
+        <v>27.09102291280081</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>23.61690953396469</v>
+        <v>27.09102287160347</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.96731065079337</v>
+        <v>27.09102290994389</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.27570275575799</v>
+        <v>27.0910229213244</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.04063258151088</v>
+        <v>27.09102291821887</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>55.28497806018876</v>
+        <v>27.09102293693686</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>60.15493610499772</v>
+        <v>27.09102294281861</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.25184629457231</v>
+        <v>27.09102288620924</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>51.24164228382122</v>
+        <v>27.09102293332591</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>58.97065688356522</v>
+        <v>27.09102294659591</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.94970721924991</v>
+        <v>27.09102285509587</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.32201428524525</v>
+        <v>27.09102285392308</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>42.31524233332675</v>
+        <v>27.09102287287089</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.12154063871538</v>
+        <v>27.09102287947837</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>16.78739768479183</v>
+        <v>27.09102282357466</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.70742116311848</v>
+        <v>27.09102287043614</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>46.39024500436696</v>
+        <v>27.09102288434106</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>15.44390846730583</v>
+        <v>27.09102283931088</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>33.69493721992263</v>
+        <v>27.09102287678065</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.98523893141309</v>
+        <v>27.09102288825023</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>11.12157808783609</v>
+        <v>27.09102284275394</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>31.76839911343956</v>
+        <v>27.09102288518508</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>38.89177165428335</v>
+        <v>27.09102289817335</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.82489079705443</v>
+        <v>27.09102285684916</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.19773949282483</v>
+        <v>27.09102289466749</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.53884059166626</v>
+        <v>27.09102290624375</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.34021969585645</v>
+        <v>27.09102290316523</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>52.68810792126787</v>
+        <v>27.09102292181636</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.57223756982525</v>
+        <v>27.09102292781908</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.48926897061985</v>
+        <v>27.09102287174486</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>48.4939000700078</v>
+        <v>27.09102291826214</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>56.26829691776047</v>
+        <v>27.09102293180425</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>5.641531348882808</v>
+        <v>27.0910227171555</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.28024445439279</v>
+        <v>27.09102275234468</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.36871557293748</v>
+        <v>27.09102276291338</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>1.256074449734388</v>
+        <v>27.09102271858038</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.81040745250577</v>
+        <v>27.09102275842897</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.57443192526708</v>
+        <v>27.09102277039707</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>7.922626218524936</v>
+        <v>27.09102272720996</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.65108178698884</v>
+        <v>27.09102276272649</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.78356630433973</v>
+        <v>27.09102277339351</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.36464487273394</v>
+        <v>27.09102277624193</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.18807351827896</v>
+        <v>27.09102279361537</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.97060501644778</v>
+        <v>27.09102279943385</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.080352101968803</v>
+        <v>27.09102274922405</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.98678823345877</v>
+        <v>27.09102279255022</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.68462145552779</v>
+        <v>27.09102280520509</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>7.779518906561741</v>
+        <v>27.09102278020933</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.257202978171</v>
+        <v>27.09102282008287</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.55701739907057</v>
+        <v>27.09102283240523</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>0.9624122804413204</v>
+        <v>27.09102278111836</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.86691251127283</v>
+        <v>27.09102282627156</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.00033186034668</v>
+        <v>27.09102284022553</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>9.941172023086251</v>
+        <v>27.09102279451034</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.54152893068418</v>
+        <v>27.0910228347548</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.620845100364662</v>
+        <v>27.09102273157855</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.83761837682865</v>
+        <v>27.09102276819283</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.96682719813267</v>
+        <v>27.09102277876597</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>6.10454453491937</v>
+        <v>27.09102273496372</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>23.31307620558274</v>
+        <v>27.0910227764261</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.1230772557156</v>
+        <v>27.09102278839923</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.00087152256721</v>
+        <v>27.09102274421104</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.31176219024017</v>
+        <v>27.09102278116592</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>33.48517850102193</v>
+        <v>27.09102279183742</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.19559011590542</v>
+        <v>27.09102279462202</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.20535056194669</v>
+        <v>27.09102281241127</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.04174795505608</v>
+        <v>27.09102281823931</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>14.3375404115113</v>
+        <v>27.09102276614472</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>32.97345568486993</v>
+        <v>27.09102281121997</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.71383607211958</v>
+        <v>27.09102282383246</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.90046618999589</v>
+        <v>27.0910227985204</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>32.04586022048093</v>
+        <v>27.09102284000133</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>38.41762575902099</v>
+        <v>27.09102285235874</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>7.094390759121772</v>
+        <v>27.09102280166589</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.75460058005307</v>
+        <v>27.09102284863931</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.96931591048896</v>
+        <v>27.09102286263297</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.3832971892062</v>
+        <v>27.09102281585561</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.656452074165</v>
+        <v>27.09102285772241</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>10.58978373488333</v>
+        <v>27.09102273531198</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.83427687549042</v>
+        <v>27.0910227717762</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.93194841095033</v>
+        <v>27.09102278223762</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>7.357360545340725</v>
+        <v>27.09102273921882</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.59741592276831</v>
+        <v>27.09102278051127</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.37164924587788</v>
+        <v>27.09102279235789</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.24970767951711</v>
+        <v>27.09102274841588</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.58875922348251</v>
+        <v>27.0910227852193</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.73032591974908</v>
+        <v>27.09102279577804</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.51049454622076</v>
+        <v>27.09102279844522</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.5089440806821</v>
+        <v>27.09102281609218</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.32714188586597</v>
+        <v>27.09102282186594</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>15.62933350679582</v>
+        <v>27.09102276999083</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.30886289414103</v>
+        <v>27.09102281489351</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.00360711113429</v>
+        <v>27.09102282736469</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.14445668411614</v>
+        <v>27.09102280221596</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.3055059454544</v>
+        <v>27.09102284351888</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.6426508691058</v>
+        <v>27.09102285576048</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.682426187058784</v>
+        <v>27.09102280594497</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.36047347034956</v>
+        <v>27.09102285271681</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>37.53594151036491</v>
+        <v>27.09102286657933</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>17.96889685625895</v>
+        <v>27.09102282005084</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>37.2580327423584</v>
+        <v>27.09102286173797</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>9.568919997436275</v>
+        <v>27.09102272324998</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.78779736147691</v>
+        <v>27.09102275919308</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.90270805299832</v>
+        <v>27.09102276983797</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>5.633962602773153</v>
+        <v>27.09102272608505</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.84457204860984</v>
+        <v>27.09102276678739</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.63841299481718</v>
+        <v>27.09102277884177</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>12.65950016419626</v>
+        <v>27.09102273485609</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.97212552060373</v>
+        <v>27.09102277113355</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>33.1311388349244</v>
+        <v>27.09102278187746</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.84649349936511</v>
+        <v>27.09102278447022</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.89610741818454</v>
+        <v>27.09102280203799</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>40.71725649759905</v>
+        <v>27.09102280791854</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>13.92614189717344</v>
+        <v>27.09102275665738</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.5441986343075</v>
+        <v>27.09102280094194</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>39.27670318873983</v>
+        <v>27.09102281366729</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>12.60331981860459</v>
+        <v>27.09102278822503</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>31.77700937646329</v>
+        <v>27.0910228289438</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>38.1361931731129</v>
+        <v>27.09102284138335</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>6.309062222771946</v>
+        <v>27.09102279070716</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.00102294885927</v>
+        <v>27.09102283681752</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.20152464008822</v>
+        <v>27.09102285090418</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.7442101606533</v>
+        <v>27.09102280429573</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.04550294124943</v>
+        <v>27.09102284539329</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>34.8924694603829</v>
+        <v>27.09102284719178</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.64622798118457</v>
+        <v>27.09102284602884</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>40.16896442059004</v>
+        <v>27.09102286610933</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>45.03811450369504</v>
+        <v>27.09102287299984</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.93275518101462</v>
+        <v>27.09102281388722</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.26647366544779</v>
+        <v>27.09102286349577</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>44.12923591015428</v>
+        <v>27.09102287811199</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>12.37944360187189</v>
+        <v>27.09102283204633</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.849238639547</v>
+        <v>27.09102287175459</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.29404591364895</v>
+        <v>27.09102288378641</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>6.990535940080893</v>
+        <v>27.09102283365493</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.01725443000501</v>
+        <v>27.09102287862096</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.31598093275973</v>
+        <v>27.09102289224592</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>17.3711145861276</v>
+        <v>27.09102284890416</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.97205116646564</v>
+        <v>27.09102288898179</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>43.46907081778548</v>
+        <v>27.09102290112554</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>40.68733322279886</v>
+        <v>27.09102289796605</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>50.5997958872629</v>
+        <v>27.09102291774376</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>55.59539937042349</v>
+        <v>27.09102292401541</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.61569899495016</v>
+        <v>27.09102286471494</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>46.11406436905003</v>
+        <v>27.09102291395979</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>54.08845344032609</v>
+        <v>27.09102292822219</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.07976833620652</v>
+        <v>27.09102287019478</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.8831577958557</v>
+        <v>27.09102286868649</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>47.61908331015759</v>
+        <v>27.09102288923254</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>52.5672741959665</v>
+        <v>27.091022896136</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.54502438023134</v>
+        <v>27.09102283496602</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>43.72577737805102</v>
+        <v>27.09102288654618</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>51.66795133344706</v>
+        <v>27.09102290114397</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.27063227372937</v>
+        <v>27.09102285181636</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.39676715728504</v>
+        <v>27.09102289311473</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.89951307726948</v>
+        <v>27.09102290514528</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>13.87909565905391</v>
+        <v>27.09102285558412</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.64862874043926</v>
+        <v>27.09102290235081</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.01280590213711</v>
+        <v>27.09102291597434</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.62209757415816</v>
+        <v>27.09102287166311</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>44.88434103044614</v>
+        <v>27.09102291334565</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>51.43964877368283</v>
+        <v>27.09102292548812</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.71463258001726</v>
+        <v>27.09102292192362</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>58.83038117895267</v>
+        <v>27.09102294214974</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>63.89430147200842</v>
+        <v>27.09102294841646</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.0018427023716</v>
+        <v>27.09102288709937</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>54.32685418417277</v>
+        <v>27.09102293827806</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>62.36853905260759</v>
+        <v>27.09102295247729</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.64640900108087</v>
+        <v>27.09102287409345</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>39.5087399948188</v>
+        <v>27.09102287243802</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>49.21554911315788</v>
+        <v>27.09102289281156</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>54.14138664641184</v>
+        <v>27.09102289965401</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>21.15612488225113</v>
+        <v>27.09102283879201</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.3612239546754</v>
+        <v>27.09102289015874</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>53.25606657926755</v>
+        <v>27.09102290460791</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.69307253823603</v>
+        <v>27.09102285527596</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.82283089423864</v>
+        <v>27.09102289640562</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>46.28425857036193</v>
+        <v>27.0910229083098</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>15.62732001969135</v>
+        <v>27.0910228595994</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.40107058735904</v>
+        <v>27.09102290617505</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.71841108312394</v>
+        <v>27.09102291965547</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.3676688186675</v>
+        <v>27.09102287558396</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>46.633750660488</v>
+        <v>27.09102291709623</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>53.14737667123324</v>
+        <v>27.09102292911115</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>50.46862425371788</v>
+        <v>27.09102292541512</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>60.54866759465944</v>
+        <v>27.09102294547204</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>65.58612516680915</v>
+        <v>27.09102295167844</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.74996034097484</v>
+        <v>27.09102289066453</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>56.08303335917</v>
+        <v>27.09102294164053</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>64.07173948552361</v>
+        <v>27.09102295567824</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.45613051038349</v>
+        <v>27.09102285794855</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.31745098451901</v>
+        <v>27.09102285630554</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.12821387552381</v>
+        <v>27.09102287659059</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>52.05748624464519</v>
+        <v>27.09102288356177</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>18.88388156870448</v>
+        <v>27.0910228233337</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.08497108516404</v>
+        <v>27.09102287401251</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>51.01776831946668</v>
+        <v>27.09102288874009</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>17.47587948460342</v>
+        <v>27.09102284121717</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>37.64097637765214</v>
+        <v>27.09102288179177</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>44.13594139560702</v>
+        <v>27.09102289390892</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>12.61680797598216</v>
+        <v>27.0910228443762</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.43015064332756</v>
+        <v>27.09102289032329</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.78554378582578</v>
+        <v>27.09102290404488</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.49141118506872</v>
+        <v>27.0910228598539</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>43.79255116074637</v>
+        <v>27.09102290080595</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>50.3399776276739</v>
+        <v>27.09102291303582</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.68982476018038</v>
+        <v>27.09102290937165</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.88420075627487</v>
+        <v>27.09102292935297</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>62.93712945388613</v>
+        <v>27.09102293568963</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>27.89202769559268</v>
+        <v>27.09102287524599</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.25316993144571</v>
+        <v>27.09102292557934</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>61.28952186820936</v>
+        <v>27.09102293991371</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.13</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.284</v>
+        <v>18.042</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.113</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.174</v>
+        <v>15.49</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.035</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.869</v>
+        <v>14.707</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>27.09102272245652</v>
+        <v>-0.6688418721781808</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>27.09102275671078</v>
+        <v>18.82342483063544</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.09102276725618</v>
+        <v>24.11221616891038</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.09102272502413</v>
+        <v>-0.496258085832693</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>27.091022763814</v>
+        <v>15.86182501930325</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.09102277575572</v>
+        <v>20.50906749672715</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>27.09102273315169</v>
+        <v>6.751262130121084</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.0910227677246</v>
+        <v>23.2322493603148</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.0910227783681</v>
+        <v>28.14378727969619</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.09102278146252</v>
+        <v>23.40706844689003</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.09102279854363</v>
+        <v>29.1539910483438</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.09102280440174</v>
+        <v>33.80206704901643</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.0910227553112</v>
+        <v>3.963038110194443</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.09102279748148</v>
+        <v>22.07709906060108</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.09102281009472</v>
+        <v>28.47513173267455</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.09102278604848</v>
+        <v>1.881573884590676</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.09102282489457</v>
+        <v>24.33416606282409</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>27.09102283720548</v>
+        <v>32.87804209034642</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.09102278808439</v>
+        <v>-1.910794021459949</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.0910228320741</v>
+        <v>16.62099710658887</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.0910228460151</v>
+        <v>24.32289798187927</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.09102280084387</v>
+        <v>6.494730463016239</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.09102284005132</v>
+        <v>25.86961254907468</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>27.09102273694478</v>
+        <v>5.834388343654631</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.09102277259731</v>
+        <v>27.6870810466384</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.09102278314412</v>
+        <v>32.54300419945503</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.09102274145274</v>
+        <v>8.307876257688061</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.09102278182603</v>
+        <v>27.08347703221283</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.09102279376935</v>
+        <v>31.29473127430635</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>27.09102275023002</v>
+        <v>16.61271858097768</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.0910227862142</v>
+        <v>35.31838914635193</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>27.09102279685913</v>
+        <v>39.77131148619553</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.091022799909</v>
+        <v>37.16053446955709</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>27.09102281739887</v>
+        <v>43.14129556818607</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.09102282325859</v>
+        <v>47.74723985904632</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.09102277231684</v>
+        <v>15.22521067607105</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.09102281620317</v>
+        <v>36.09977925191426</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27.09102282876861</v>
+        <v>41.86092858136664</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>27.09102280434429</v>
+        <v>11.54626542102546</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27.0910228447691</v>
+        <v>36.68632438726839</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.09102285711257</v>
+        <v>45.07133688390285</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>27.09102280859278</v>
+        <v>10.52800746918363</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.09102285437023</v>
+        <v>31.77126526663605</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.09102286834811</v>
+        <v>39.3202429324685</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.09102286297857</v>
+        <v>42.17570531962212</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>27.09102274068591</v>
+        <v>4.942531277167511</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.09102277619788</v>
+        <v>27.22654808151894</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.09102278663028</v>
+        <v>32.17651152347852</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.09102274569391</v>
+        <v>8.297230157540103</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.09102278590802</v>
+        <v>27.54294918981326</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.09102279772178</v>
+        <v>31.85614388667872</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.09102275444062</v>
+        <v>16.54772945550357</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.09102279028292</v>
+        <v>35.6848608501417</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>27.09102280081238</v>
+        <v>40.22315973668431</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.09102280374169</v>
+        <v>37.81184762161242</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>27.0910228210934</v>
+        <v>43.79672649684083</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>27.09102282689396</v>
+        <v>48.56359057395058</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>27.0910227761618</v>
+        <v>15.38642863750604</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.09102281988709</v>
+        <v>36.86291878376039</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>27.09102283230831</v>
+        <v>42.69716648829137</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>27.09102280802693</v>
+        <v>11.10893774593307</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.09102284828345</v>
+        <v>36.73956319371513</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>27.09102286050887</v>
+        <v>45.26634731545523</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>27.09102281283637</v>
+        <v>11.04747152481946</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.09102285842326</v>
+        <v>32.82162734802252</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>27.09102287226744</v>
+        <v>40.51989461155917</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>27.09102282635784</v>
+        <v>20.76217188166496</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>27.09102286698884</v>
+        <v>43.15652556271577</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>27.09102272876195</v>
+        <v>1.938439947753203</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>27.09102276376262</v>
+        <v>23.06686635629507</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.09102277437903</v>
+        <v>28.80669744882963</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.0910227327254</v>
+        <v>5.234220143378618</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.09102277236052</v>
+        <v>23.28118699612702</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.09102278438264</v>
+        <v>28.40043152190776</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.09102274102884</v>
+        <v>12.387183197981</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.09102277635511</v>
+        <v>30.4413279977734</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>27.09102278707027</v>
+        <v>35.77076259175457</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.09102278991233</v>
+        <v>31.15534579995674</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.09102280719096</v>
+        <v>37.07748178738622</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>27.09102281310063</v>
+        <v>42.29153833990814</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>27.09102276296916</v>
+        <v>10.03827488810205</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>27.09102280608812</v>
+        <v>30.2519999259625</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.09102281876594</v>
+        <v>37.07374981188704</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>27.09102279425457</v>
+        <v>6.322828717938769</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.09102283393565</v>
+        <v>30.65349247009537</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.09102284636043</v>
+        <v>39.81230449579767</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>27.09102279784347</v>
+        <v>5.764915877522217</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.09102284277872</v>
+        <v>26.21664633356151</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>27.09102285684868</v>
+        <v>34.54335780403503</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>27.09102281083183</v>
+        <v>14.22299924948378</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>27.09102285088203</v>
+        <v>35.40517225135999</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.09102285247675</v>
+        <v>33.91049411398713</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>27.09102285140563</v>
+        <v>28.30592417485437</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.09102287121839</v>
+        <v>37.53892645388692</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>27.09102287816203</v>
+        <v>44.42228672887349</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.091022820105</v>
+        <v>5.689993928650544</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.09102286848833</v>
+        <v>30.32659452553094</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.09102288303571</v>
+        <v>38.32085589190693</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.09102283569282</v>
+        <v>2.245641259857067</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.09102287433259</v>
+        <v>27.39704108264933</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>27.09102288638484</v>
+        <v>36.6764090294369</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>27.09102283828799</v>
+        <v>-1.393707471682919</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.09102288204406</v>
+        <v>19.92094205621662</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.09102289569215</v>
+        <v>28.47083788537575</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>27.09102285282132</v>
+        <v>10.02158308253731</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>27.09102289182054</v>
+        <v>32.07677999681945</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.0910229039849</v>
+        <v>40.73860624144402</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>27.09102290092363</v>
+        <v>38.43146682999669</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>27.09102292043879</v>
+        <v>48.90680156444276</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.09102292675854</v>
+        <v>55.66472340035043</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>27.09102286856853</v>
+        <v>12.03390875300687</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>27.09102291653494</v>
+        <v>39.68947506254036</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.091022930787</v>
+        <v>48.86058953446526</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>27.09102287543687</v>
+        <v>50.02944201744705</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>27.09102287403025</v>
+        <v>46.21985824397055</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>27.09102289430383</v>
+        <v>55.69881842587302</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>27.09102290125175</v>
+        <v>62.64104586118467</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>27.09102284117234</v>
+        <v>21.05697982179606</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>27.09102289149371</v>
+        <v>48.97978311222812</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>27.09102290601791</v>
+        <v>56.51596652587638</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>27.0910228553717</v>
+        <v>15.34501163333861</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.09102289557257</v>
+        <v>43.33277201374186</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>27.09102290762436</v>
+        <v>52.25383922468832</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>27.09102286009756</v>
+        <v>14.81675071242453</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.09102290562144</v>
+        <v>39.01921942605182</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>27.09102291926901</v>
+        <v>47.22607558566884</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>27.09102287548637</v>
+        <v>27.75105463983353</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>27.09102291606121</v>
+        <v>52.47703339878378</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>27.09102292822511</v>
+        <v>60.75530133740941</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>27.09102292476551</v>
+        <v>60.48816757206155</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>27.09102294472171</v>
+        <v>71.14693103342147</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>27.09102295103119</v>
+        <v>77.88797953200161</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.09102289085824</v>
+        <v>31.31690320514293</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.09102294072444</v>
+        <v>62.37436542871811</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>27.09102295491341</v>
+        <v>70.93935510999965</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>27.09102287932798</v>
+        <v>51.14215346927402</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>27.09102287777363</v>
+        <v>47.34380211902979</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.0910228978784</v>
+        <v>56.80933853395467</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>27.09102290476058</v>
+        <v>63.95414732168927</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>27.09102284498141</v>
+        <v>21.8092134999451</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.09102289510096</v>
+        <v>50.4084590799884</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>27.09102285883208</v>
+        <v>16.23447747075702</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>27.09102289887335</v>
+        <v>44.74642535748376</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.09102291079737</v>
+        <v>53.75831726797649</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.09102286409084</v>
+        <v>16.77879833870605</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.09102290943399</v>
+        <v>41.55149347818782</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.09102292293687</v>
+        <v>49.85713751278273</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>27.09102287940593</v>
+        <v>29.72776996354309</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>27.09102291981968</v>
+        <v>54.97186605931012</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.09102293185462</v>
+        <v>63.33381233316894</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>27.09102292826171</v>
+        <v>63.14191970943906</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>27.09102294805103</v>
+        <v>73.76620568649228</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>27.09102295429673</v>
+        <v>80.70094973840654</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>27.09102289441887</v>
+        <v>33.50798828636367</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>27.09102294409267</v>
+        <v>65.27305174207075</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.09102295811921</v>
+        <v>73.91144018445206</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27.0910228634224</v>
+        <v>44.02552191380767</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.09102286187479</v>
+        <v>37.9304795620032</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>27.0910228818942</v>
+        <v>47.34928110070379</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.0910228889089</v>
+        <v>54.93141427137888</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>27.09102282975179</v>
+        <v>13.90971053242551</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.09102287919355</v>
+        <v>40.98755626742144</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>27.09102289384777</v>
+        <v>49.52828299136618</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>27.09102284501756</v>
+        <v>11.0324160667464</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.09102288451066</v>
+        <v>38.21390263825733</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>27.09102289664844</v>
+        <v>48.00191207298929</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.09102284913634</v>
+        <v>10.92440215306039</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.09102289385873</v>
+        <v>34.32469119032778</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.09102290760367</v>
+        <v>43.39944641910808</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.09102286392885</v>
+        <v>22.60543663706023</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.09102290378933</v>
+        <v>46.61148735197791</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.09102291604002</v>
+        <v>55.75079707028038</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.09102291247251</v>
+        <v>53.15214423305611</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>27.09102293219061</v>
+        <v>63.80838098152746</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>27.09102293856898</v>
+        <v>71.25015838652351</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>27.09102287925114</v>
+        <v>24.9609275217751</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>27.09102292828937</v>
+        <v>55.21711249308707</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>27.09102294261415</v>
+        <v>64.8627266854985</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>27.09102273262726</v>
+        <v>15.23145193772884</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>27.09102276687781</v>
+        <v>36.99632906894612</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.09102277692861</v>
+        <v>41.4020248353712</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.09102273466486</v>
+        <v>15.37283052234897</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.09102277345054</v>
+        <v>34.3252090345928</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>27.09102278483216</v>
+        <v>38.02199977379625</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.09102274343917</v>
+        <v>24.94346252574478</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.09102277800834</v>
+        <v>43.7117044605096</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.09102278815264</v>
+        <v>47.78518769342071</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.09102279016444</v>
+        <v>43.54117660576835</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>27.09102280700811</v>
+        <v>49.93092894030631</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.09102281247336</v>
+        <v>53.30184169116694</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.09102276343366</v>
+        <v>21.15767574431548</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.09102280553971</v>
+        <v>41.70668495729467</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.09102281757617</v>
+        <v>47.07522233480689</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.09102279393764</v>
+        <v>14.00822641472256</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.09102283276299</v>
+        <v>38.68508956941318</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.09102284442629</v>
+        <v>46.09823605939229</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.09102279541024</v>
+        <v>9.964779757694112</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>27.09102283937646</v>
+        <v>31.07776382963183</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>27.0910228525841</v>
+        <v>37.59301100183023</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.09102280882471</v>
+        <v>20.86321586408157</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.09102284801122</v>
+        <v>42.46296793907112</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>27.09102274656027</v>
+        <v>20.9462843312074</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.09102278218012</v>
+        <v>45.07497561674538</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.09102279223213</v>
+        <v>48.99861453186884</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.09102275047386</v>
+        <v>23.20998419561067</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.09102279081014</v>
+        <v>44.59674387810767</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>27.09102280219315</v>
+        <v>47.80256114192844</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.09102275983535</v>
+        <v>33.83908410830701</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>27.09102279578655</v>
+        <v>54.83573320617779</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>27.09102280593208</v>
+        <v>58.40657177411505</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.09102280787319</v>
+        <v>56.27088982747607</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>27.09102282511052</v>
+        <v>62.94014366598392</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.09102283058859</v>
+        <v>66.21676048135799</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.09102277973071</v>
+        <v>31.3971602843545</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27.09102282351247</v>
+        <v>54.70054866258074</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.09102283550654</v>
+        <v>59.38855998688528</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.09102281154968</v>
+        <v>22.78551330276834</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>27.0910228519187</v>
+        <v>50.13133920536109</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.09102286360981</v>
+        <v>57.32130601947823</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.09102281516043</v>
+        <v>21.30531028027666</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.09102286087471</v>
+        <v>45.12660844620513</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>27.09102287411384</v>
+        <v>51.4166068874402</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>27.09102282932946</v>
+        <v>33.55261621840899</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.09102287007401</v>
+        <v>57.66651298307013</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>27.09102274999516</v>
+        <v>19.72427247077673</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.09102278546684</v>
+        <v>44.25205251121621</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>27.09102279541061</v>
+        <v>48.25302676781125</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.09102275440064</v>
+        <v>22.83327281402205</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.09102279456913</v>
+        <v>44.65880811202391</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>27.09102280582956</v>
+        <v>47.94765990695397</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.09102276370404</v>
+        <v>33.3759373618548</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.09102279950569</v>
+        <v>54.7715636348581</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>27.09102280954196</v>
+        <v>58.41270978260172</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.09102281138003</v>
+        <v>56.51082769686461</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>27.09102282847778</v>
+        <v>63.18876326652681</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.0910228339051</v>
+        <v>66.6142057995899</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>27.09102278326471</v>
+        <v>31.17028618612423</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>27.0910228268758</v>
+        <v>55.03726553329925</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.09102283873335</v>
+        <v>59.77967670896262</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.0910228149392</v>
+        <v>22.03833380087398</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.09102285513349</v>
+        <v>49.84006257552777</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.09102286671143</v>
+        <v>57.15174083266098</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.09102281910302</v>
+        <v>21.47587693391123</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.09102286461943</v>
+        <v>45.79450246614663</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.09102287773041</v>
+        <v>52.21063239318277</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.09102283318003</v>
+        <v>33.66644487108119</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>27.09102287374821</v>
+        <v>58.23341157414738</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.09102273846002</v>
+        <v>17.1583066780918</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.09102277344028</v>
+        <v>40.51902431965638</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.09102278355659</v>
+        <v>45.30912659662692</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>27.09102274185506</v>
+        <v>20.3025900793874</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.09102278146706</v>
+        <v>40.91322068772394</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.09102279292287</v>
+        <v>45.00683427964671</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.09102275075418</v>
+        <v>29.72981766296193</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>27.09102278605984</v>
+        <v>50.03029419208964</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27.09102279627025</v>
+        <v>54.46060651493856</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.09102279804048</v>
+        <v>50.44168092872307</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>27.09102281507112</v>
+        <v>57.02905832183002</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>27.09102282059351</v>
+        <v>60.90994218728809</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.09102277053541</v>
+        <v>26.39590071013394</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>27.09102281356708</v>
+        <v>48.99471929049299</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>27.09102282566268</v>
+        <v>54.71134087127103</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.09102280161179</v>
+        <v>17.63654987843517</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>27.09102284125756</v>
+        <v>44.14374173847117</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>27.09102285302122</v>
+        <v>52.09181240849587</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.09102280460133</v>
+        <v>16.69041827213975</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>27.09102284949659</v>
+        <v>39.68648117742475</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.09102286281788</v>
+        <v>46.7350676158793</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.09102281819133</v>
+        <v>27.59398366495853</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.0910228582059</v>
+        <v>50.95331097444203</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>27.09102285978302</v>
+        <v>49.43938172318113</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.09102285804221</v>
+        <v>44.79748743048957</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.09102287748676</v>
+        <v>54.49856206831684</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.09102288393023</v>
+        <v>59.90147025630123</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.0910228264033</v>
+        <v>19.80479987406281</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>27.09102287465371</v>
+        <v>46.72551187914037</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.09102288848491</v>
+        <v>53.54341517704427</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.09102284253989</v>
+        <v>13.43051698620835</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27.09102288115857</v>
+        <v>40.96312180589991</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.09102289253631</v>
+        <v>49.05867607952326</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.09102284464399</v>
+        <v>9.457552039300822</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>27.09102288837618</v>
+        <v>33.51501062464548</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.09102290126045</v>
+        <v>40.81837042948003</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.09102285980357</v>
+        <v>23.25397455848309</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>27.09102289878149</v>
+        <v>47.69704599324415</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>27.09102291026507</v>
+        <v>55.24511086699894</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.0910229067053</v>
+        <v>53.50288376859366</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>27.09102292582386</v>
+        <v>64.51741834931406</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.09102293169336</v>
+        <v>69.77750774836731</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.09102287407974</v>
+        <v>24.83676784965613</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.09102292192524</v>
+        <v>54.9308755014408</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.09102293541373</v>
+        <v>62.81413531696463</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.09102288187387</v>
+        <v>64.39822114298593</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.09102287979283</v>
+        <v>61.58263138585423</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.09102289967834</v>
+        <v>71.57810386410685</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.09102290613644</v>
+        <v>76.97545665781635</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.09102284663197</v>
+        <v>34.06221290005529</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>27.09102289677012</v>
+        <v>64.23479911210799</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.09102291057886</v>
+        <v>70.53956179142729</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.09102286151773</v>
+        <v>25.39631527661894</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.09102290166185</v>
+        <v>55.74355168747171</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.09102291303179</v>
+        <v>63.41291964459945</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.09102286568757</v>
+        <v>24.35310416887124</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.09102291114718</v>
+        <v>51.29117198479345</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.09102292402261</v>
+        <v>58.1757571595707</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.09102288163067</v>
+        <v>39.65708936857768</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.09102292214823</v>
+        <v>66.75069262343155</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>27.09102293362394</v>
+        <v>73.8539551170571</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>27.09102292966921</v>
+        <v>74.18624198452224</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>27.09102294921316</v>
+        <v>85.42915528262236</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.09102295507913</v>
+        <v>90.61241119820505</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.0910228955314</v>
+        <v>42.7838578515703</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.09102294522697</v>
+        <v>76.24736700296612</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.09102295864885</v>
+        <v>83.46017158883384</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.09102288543385</v>
+        <v>65.07881662284754</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>27.09102288322015</v>
+        <v>62.31946017741211</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.09102290293786</v>
+        <v>72.30820522254788</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>27.09102290933805</v>
+        <v>77.89163491508941</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.09102285013596</v>
+        <v>34.44456168331453</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.09102290006423</v>
+        <v>65.25179873432381</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>27.09102291372827</v>
+        <v>71.65058005660637</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>27.09102286468445</v>
+        <v>25.91308354768533</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>27.0910229046632</v>
+        <v>56.74984178812171</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.09102291591001</v>
+        <v>64.48534586510695</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.09102286938058</v>
+        <v>25.91237605703174</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>27.09102291465292</v>
+        <v>53.387352918407</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>27.09102292738893</v>
+        <v>60.34297103650229</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>27.09102288522181</v>
+        <v>41.19505439513595</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>27.09102292557246</v>
+        <v>68.77214158976838</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>27.0910229369239</v>
+        <v>75.93619785604676</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>27.09102293284993</v>
+        <v>76.39389127838646</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.09102295222997</v>
+        <v>87.6098996534847</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27.09102295803847</v>
+        <v>92.9689240846306</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.09102289878784</v>
+        <v>44.55136960298638</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.09102294828456</v>
+        <v>78.68347925739059</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.09102296154945</v>
+        <v>85.94284725202391</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.09102287007898</v>
+        <v>58.43562911096988</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>27.09102286788297</v>
+        <v>53.44983263923021</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>27.09102288752691</v>
+        <v>63.36439253465434</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.09102289404176</v>
+        <v>69.39299326045727</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.09102283543661</v>
+        <v>27.05435404420653</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.09102288472378</v>
+        <v>56.35286808628445</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.09102289864773</v>
+        <v>63.63330174124744</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.09102285129372</v>
+        <v>21.23515433293292</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>27.0910228907527</v>
+        <v>50.75267704118249</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.09102290219998</v>
+        <v>59.26495160713128</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>27.09102285489197</v>
+        <v>20.67339028521106</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>27.09102289957571</v>
+        <v>46.78401718194917</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>27.09102291253874</v>
+        <v>54.50866407876713</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>27.0910228702572</v>
+        <v>34.67393339455834</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>27.09102291008324</v>
+        <v>61.02225740027448</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.09102292163701</v>
+        <v>68.96243145523022</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>27.09102291759803</v>
+        <v>67.08019270862563</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>27.09102293691516</v>
+        <v>78.30610312750247</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.09102294284106</v>
+        <v>84.16966933116566</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27.09102288412451</v>
+        <v>36.64069875315451</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>27.0910229330241</v>
+        <v>69.28157207421154</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.09102294656712</v>
+        <v>77.54165620659336</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>27.09102271531808</v>
+        <v>-1.518599440186993</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.09102275006594</v>
+        <v>17.45854782886629</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.09102276084868</v>
+        <v>22.66064439056599</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.09102271756071</v>
+        <v>-1.835863856043648</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.09102275690953</v>
+        <v>14.0144661721579</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>27.09102276912003</v>
+        <v>18.55279975545526</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.09102272578501</v>
+        <v>5.374231123786696</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.09102276085611</v>
+        <v>21.34058884117002</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.09102277173916</v>
+        <v>26.15957054566217</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.09102277527158</v>
+        <v>21.62109966022237</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.09102279263655</v>
+        <v>27.09216159668815</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.0910227986184</v>
+        <v>31.71586424313657</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.09102274889027</v>
+        <v>2.617037639955853</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.09102279169227</v>
+        <v>20.23632172490846</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.09102280459275</v>
+        <v>26.49648581896512</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.09102277920552</v>
+        <v>-2.601373612456772</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.0910228186259</v>
+        <v>19.20715995234841</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>27.09102283122178</v>
+        <v>27.79267620662767</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.09102278087004</v>
+        <v>-7.061400523764362</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.09102282551008</v>
+        <v>10.83006326211459</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.09102283977379</v>
+        <v>18.54353444837382</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.09102279378688</v>
+        <v>1.076399741792791</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.09102283357396</v>
+        <v>19.81478237364993</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>27.09102273000794</v>
+        <v>4.587307926865442</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.09102276617713</v>
+        <v>25.91834548294758</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.09102277697133</v>
+        <v>30.69158721207829</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.0910227342326</v>
+        <v>6.596254843922928</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.09102277519095</v>
+        <v>24.85754705053062</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>27.09102278741441</v>
+        <v>28.96545888193734</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.09102274311832</v>
+        <v>14.84646338385296</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.09102277962396</v>
+        <v>33.03092697762832</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.09102279051858</v>
+        <v>37.39514565807375</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.09102279400488</v>
+        <v>35.01070238561891</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>27.09102281178602</v>
+        <v>40.71979443911324</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.09102281777345</v>
+        <v>45.30212345737583</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.09102276615809</v>
+        <v>13.52354532973117</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>27.09102281070676</v>
+        <v>33.90123175619687</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.09102282357078</v>
+        <v>39.52427162281109</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.09102279781663</v>
+        <v>6.708252902552552</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>27.09102283884262</v>
+        <v>31.20010817336611</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.09102285148352</v>
+        <v>39.63915691663176</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.091022801739</v>
+        <v>5.051141771897711</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>27.09102284819725</v>
+        <v>25.65000530250664</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.09102286251193</v>
+        <v>33.2237203548403</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.09102281549796</v>
+        <v>14.50975889563949</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>27.0910228569056</v>
+        <v>35.7759127588518</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.09102273385582</v>
+        <v>3.532423649938742</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.09102276988148</v>
+        <v>25.29315789197866</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>27.09102278056131</v>
+        <v>30.16649154955564</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.09102273859183</v>
+        <v>6.429458084886804</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.09102277938765</v>
+        <v>25.15912301175004</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.09102279148161</v>
+        <v>29.37537031630998</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.09102274744608</v>
+        <v>14.61521495050313</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.09102278380686</v>
+        <v>33.22961490371833</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.09102279458605</v>
+        <v>37.6850783757188</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.0910227979434</v>
+        <v>35.50406425106846</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>27.09102281558379</v>
+        <v>41.21787231109843</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.091022821512</v>
+        <v>45.96451080412574</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>27.09102277010803</v>
+        <v>13.5273394020704</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>27.09102281449234</v>
+        <v>34.50393223031631</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.09102282721199</v>
+        <v>40.20631469288129</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.09102280162606</v>
+        <v>6.146231342778844</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>27.09102284248039</v>
+        <v>31.12786159864564</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>27.09102285500352</v>
+        <v>39.71628921110657</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.09102280612332</v>
+        <v>5.45466940705813</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.09102285238718</v>
+        <v>26.58368311836797</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>27.09102286656851</v>
+        <v>34.31428344720436</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.09102281981789</v>
+        <v>14.8787662292989</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.09102286105226</v>
+        <v>36.6317960791163</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27.09102272165665</v>
+        <v>0.7062026435460425</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.09102275716002</v>
+        <v>21.31413701685246</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>27.09102276802073</v>
+        <v>26.97786909908913</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.09102272531249</v>
+        <v>3.531588381765118</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.09102276551686</v>
+        <v>21.06592882148639</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.09102277781565</v>
+        <v>26.08672529780409</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.09102273371332</v>
+        <v>10.61810612656147</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.09102276954695</v>
+        <v>28.15235108888891</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>27.0910227805087</v>
+        <v>33.39936211498188</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.09102278377908</v>
+        <v>28.99138623169088</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.091022801344</v>
+        <v>34.63854371919348</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.0910228073811</v>
+        <v>39.83383940509354</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.09102275659684</v>
+        <v>8.323462475340136</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.09102280036029</v>
+        <v>28.03421363714333</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.09102281333333</v>
+        <v>34.72920288968778</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.09102278750643</v>
+        <v>1.498239087135225</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>27.09102282777247</v>
+        <v>25.17928302070447</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.09102284049126</v>
+        <v>34.3956516942514</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.09102279074769</v>
+        <v>0.2954762990705646</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.09102283634537</v>
+        <v>20.10205657472383</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.09102285074824</v>
+        <v>28.45490044301807</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.09102280389589</v>
+        <v>8.457466170113214</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.0910228445365</v>
+        <v>28.99774052717126</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>27.09102284628701</v>
+        <v>27.89617006611438</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.09102284556871</v>
+        <v>22.39404827614146</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.09102286569683</v>
+        <v>31.30735446949816</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.09102287278095</v>
+        <v>38.2153985896254</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>27.09102281396889</v>
+        <v>0.3419102592868448</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.09102286308197</v>
+        <v>24.29205529551621</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>27.09102287797441</v>
+        <v>32.28198503621794</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.09102283083682</v>
+        <v>-1.439036885470703</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.09102287008224</v>
+        <v>23.23145529568907</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.09102288237941</v>
+        <v>32.5037066215955</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.09102283312576</v>
+        <v>-5.768291553875908</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>27.09102287756767</v>
+        <v>15.07035756680425</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>27.09102289149311</v>
+        <v>23.58833159720326</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>27.09102284789491</v>
+        <v>5.489660517087579</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>27.0910228875054</v>
+        <v>27.07024136610718</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.09102289991696</v>
+        <v>35.72384350969845</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.09102289717211</v>
+        <v>33.45046045762418</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>27.09102291698826</v>
+        <v>43.65133164457646</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.09102292342629</v>
+        <v>50.43160607348543</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.0910228644607</v>
+        <v>7.560100816471618</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.09102291318477</v>
+        <v>34.67557879807941</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.09102292772793</v>
+        <v>43.78247318065979</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.09102286966408</v>
+        <v>43.68265071297166</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.09102286860048</v>
+        <v>39.99619105468033</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>27.0910228891971</v>
+        <v>49.16399813674635</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.09102289629088</v>
+        <v>56.13256910149386</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>27.09102283541448</v>
+        <v>15.40617682952307</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>27.09102288650055</v>
+        <v>42.64250888098215</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.09102290138381</v>
+        <v>50.18154727597753</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.09102285089227</v>
+        <v>11.38517586755062</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.09102289172488</v>
+        <v>38.88842360059049</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.09102290403184</v>
+        <v>47.81182443914996</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>27.09102285535611</v>
+        <v>10.20418093758</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.09102290159536</v>
+        <v>33.92703819622301</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.0910229155319</v>
+        <v>42.11240886557046</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.09102287099993</v>
+        <v>22.97131708995993</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.09102291221237</v>
+        <v>47.21919854022939</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.09102292463383</v>
+        <v>55.49869598816009</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>27.0910229214826</v>
+        <v>55.28899145802486</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>27.09102294174679</v>
+        <v>65.67711123110335</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>27.09102294817867</v>
+        <v>72.44406636627295</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.09102288719056</v>
+        <v>26.63163190728296</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.09102293784724</v>
+        <v>57.14785245344144</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.09102295233831</v>
+        <v>65.65296826556525</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>27.09102287369189</v>
+        <v>44.67788482667173</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.09102287247126</v>
+        <v>41.00556139057564</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>27.09102289289616</v>
+        <v>50.16183033929726</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>27.09102289992446</v>
+        <v>57.33627728033574</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.09102283935038</v>
+        <v>16.04437925682323</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>27.09102289023086</v>
+        <v>43.9555003478825</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.09102290496352</v>
+        <v>51.61785186179316</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.09102285446829</v>
+        <v>12.16962183566978</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.0910228951382</v>
+        <v>40.19652673875933</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>27.0910229073173</v>
+        <v>49.2175258986636</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.09102285947897</v>
+        <v>12.07393036397631</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.09102290553399</v>
+        <v>36.36650340974055</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>27.09102291932572</v>
+        <v>44.65752439116007</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.0910228750479</v>
+        <v>24.84715643886025</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>27.09102291609614</v>
+        <v>49.61263982848998</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.09102292838853</v>
+        <v>57.98244578348044</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>27.09102292509586</v>
+        <v>57.85171896638391</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>27.0910229451907</v>
+        <v>68.20691923111049</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.09102295155882</v>
+        <v>75.17115488195455</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>27.09102289086767</v>
+        <v>28.73127006312985</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>27.09102294132865</v>
+        <v>59.95410972908007</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.09102295565684</v>
+        <v>68.53940411762653</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.0910228573736</v>
+        <v>37.67419868986686</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.09102285616457</v>
+        <v>31.68934672333451</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.09102287650177</v>
+        <v>40.79271251571862</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.09102288366217</v>
+        <v>48.4033408669238</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>27.09102282373116</v>
+        <v>8.242626053857361</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.09102287391744</v>
+        <v>34.62503542318729</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.09102288892704</v>
+        <v>43.1789448696885</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.09102284029685</v>
+        <v>7.083976931273543</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>27.09102288040805</v>
+        <v>33.78293803626831</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.09102289279737</v>
+        <v>43.57681813813335</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.09102284413592</v>
+        <v>6.317056949136131</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>27.09102288955825</v>
+        <v>29.24028645223104</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.09102290358804</v>
+        <v>38.29535178417889</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.0910228591685</v>
+        <v>17.81431591729827</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>27.09102289965282</v>
+        <v>41.3441499370652</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>27.0910229121574</v>
+        <v>50.48784725699231</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>27.09102290889414</v>
+        <v>47.93092399250001</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>27.09102292891616</v>
+        <v>58.31698457035405</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.09102293541658</v>
+        <v>65.78558057650159</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.09102287530294</v>
+        <v>20.25250987092718</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>27.09102292511567</v>
+        <v>49.96465853105327</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>27.09102293973874</v>
+        <v>59.56061317639949</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>27.09102272254135</v>
+        <v>-1.504325888269193</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.09102275498602</v>
+        <v>16.52206314221152</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.0910227649751</v>
+        <v>21.23076718014234</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.09102272443297</v>
+        <v>-2.04181489235366</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>27.09102276117364</v>
+        <v>13.06478983813265</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>27.09102277248538</v>
+        <v>17.13460722808436</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>27.09102273215361</v>
+        <v>4.933936990740293</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.09102276490009</v>
+        <v>20.12995360815799</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.0910227749821</v>
+        <v>24.48658439960453</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.0910227781776</v>
+        <v>20.57262916347019</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.09102279436522</v>
+        <v>25.79654486756094</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.09102279988685</v>
+        <v>29.90243606137314</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.09102275345817</v>
+        <v>2.355894400927831</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.09102279341496</v>
+        <v>19.14007859366692</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.09102280536694</v>
+        <v>24.7832935096374</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.09102278238874</v>
+        <v>-0.6205277092424986</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.09102281921375</v>
+        <v>20.18200064764839</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>27.09102283087602</v>
+        <v>28.09733701402103</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.09102278379038</v>
+        <v>-4.959667352445823</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.09102282549139</v>
+        <v>12.18172630555016</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.09102283869787</v>
+        <v>19.26241149499875</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.09102279592146</v>
+        <v>3.07309258766514</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>27.09102283308902</v>
+        <v>20.9835686091358</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.09102273612926</v>
+        <v>4.042671922098332</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.09102276989618</v>
+        <v>24.28806046516503</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.09102277989655</v>
+        <v>28.58590028042611</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.09102273986286</v>
+        <v>5.678850600627257</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.09102277810086</v>
+        <v>23.0595012021519</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.09102278942538</v>
+        <v>26.71720101945883</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>27.09102274818851</v>
+        <v>13.6307292064837</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.09102278226954</v>
+        <v>30.91789497158307</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.09102279236294</v>
+        <v>34.83995455312986</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.09102279551387</v>
+        <v>32.95968414439758</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.09102281208775</v>
+        <v>38.41427086251004</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>27.09102281761731</v>
+        <v>42.47303739074437</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.09102276943122</v>
+        <v>12.40329711234966</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.09102281101216</v>
+        <v>31.78772782169871</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>27.09102282293157</v>
+        <v>36.82280109813905</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.09102279963543</v>
+        <v>8.001139051969066</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>27.0910228379546</v>
+        <v>31.3352831897289</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.09102284965891</v>
+        <v>39.10574915339105</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.09102280313726</v>
+        <v>6.2860187235753</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.09102284653028</v>
+        <v>25.98304059320173</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>27.09102285978436</v>
+        <v>32.92467155372645</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.09102281604136</v>
+        <v>15.56681474715337</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>27.091022854717</v>
+        <v>35.86242107455131</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>27.09102273968976</v>
+        <v>2.990927889561728</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.09102277332128</v>
+        <v>23.63630929372898</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.09102278321617</v>
+        <v>28.02873079046559</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.09102274390098</v>
+        <v>5.461934649167063</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.09102278198566</v>
+        <v>23.27931819753551</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.09102279319073</v>
+        <v>27.03909809281148</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>27.09102275219296</v>
+        <v>13.34726026991905</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.09102278613733</v>
+        <v>31.03462745127827</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.09102279612427</v>
+        <v>35.04315000957757</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.09102279915676</v>
+        <v>33.35724732447953</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>27.09102281559881</v>
+        <v>38.81642883142057</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>27.09102282107492</v>
+        <v>43.02973990313492</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>27.09102277308741</v>
+        <v>12.34456970284965</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.09102281451309</v>
+        <v>32.28695669480341</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>27.09102282629931</v>
+        <v>37.39729367850047</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>27.09102280315737</v>
+        <v>7.407945992955039</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.09102284131493</v>
+        <v>31.19844999364349</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.09102285291043</v>
+        <v>39.10961305435262</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.09102280719599</v>
+        <v>6.600257692589807</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.09102285040601</v>
+        <v>26.79202849388992</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.09102286353687</v>
+        <v>33.88089683214352</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.09102282003519</v>
+        <v>15.84250229899347</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>27.09102285854772</v>
+        <v>36.5917904589253</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.09102272836612</v>
+        <v>0.4125379077460245</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.09102276151325</v>
+        <v>19.96775700555606</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.09102277157513</v>
+        <v>25.10656495280587</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.09102273157101</v>
+        <v>2.82781087693504</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.09102276910717</v>
+        <v>19.51497472336849</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.09102278050133</v>
+        <v>24.03334259426179</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.09102273944651</v>
+        <v>9.673445966528451</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.09102277290199</v>
+        <v>26.33905429872226</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.09102278305747</v>
+        <v>31.09492089524401</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.09102278600967</v>
+        <v>27.31669120371923</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.09102280238205</v>
+        <v>32.70880416059128</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.09102280795727</v>
+        <v>37.34788643837511</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.09102276054569</v>
+        <v>7.538726472489618</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.09102280139603</v>
+        <v>26.28202495210542</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.09102281341594</v>
+        <v>32.32993673609309</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.091022790042</v>
+        <v>3.07211996296213</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>27.09102282765435</v>
+        <v>25.63242068862273</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>27.09102283943036</v>
+        <v>34.13645779886966</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.09102279291124</v>
+        <v>1.793278362039988</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.09102283550385</v>
+        <v>20.73429035543863</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.09102284883912</v>
+        <v>28.4098272114665</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.09102280524808</v>
+        <v>9.837571892964672</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.09102284321031</v>
+        <v>29.43938274568141</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>27.09102284485979</v>
+        <v>28.43645780384923</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.09102284414265</v>
+        <v>23.54922772675069</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>27.09102286289668</v>
+        <v>32.03610009718631</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.09102286943165</v>
+        <v>38.27858464469335</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.09102281457022</v>
+        <v>2.444249975764539</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>27.09102286043315</v>
+        <v>25.29861231059619</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>27.09102287422956</v>
+        <v>32.60913100473439</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.09102283057744</v>
+        <v>0.4539552107501557</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.09102286724061</v>
+        <v>23.99879442954379</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>27.09102287862537</v>
+        <v>32.56613579299344</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.09102283257617</v>
+        <v>-3.759970234905637</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>27.09102287409392</v>
+        <v>16.21093552439853</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.09102288698614</v>
+        <v>24.05056906859959</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.0910228464356</v>
+        <v>7.217006558194754</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.09102288343983</v>
+        <v>27.85091801741328</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.09102289493049</v>
+        <v>35.84897983955723</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>27.09102289233301</v>
+        <v>33.93021976477173</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>27.09102291079277</v>
+        <v>43.65875403428254</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.09102291673635</v>
+        <v>49.79223872322208</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.09102286173134</v>
+        <v>9.224443463818357</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.09102290723469</v>
+        <v>35.11330559049573</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.0910229207035</v>
+        <v>43.47850346891671</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.09102286653019</v>
+        <v>43.14497200805432</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>27.0910228654921</v>
+        <v>39.97274146688468</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>27.09102288468055</v>
+        <v>48.70868506028336</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>27.09102289122718</v>
+        <v>54.99800907010735</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>27.09102283444416</v>
+        <v>16.47536825808277</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>27.09102288214194</v>
+        <v>42.42984419581039</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>27.09102289593062</v>
+        <v>49.30738640371503</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>27.09102284917692</v>
+        <v>12.37094104173424</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.09102288731704</v>
+        <v>38.58977576487612</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>27.09102289871094</v>
+        <v>46.82173433673321</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>27.09102285320068</v>
+        <v>11.11450026643147</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>27.09102289639094</v>
+        <v>33.80934659437082</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.09102290929351</v>
+        <v>41.32853108333681</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.09102286786351</v>
+        <v>23.51488050997917</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>27.09102290635842</v>
+        <v>46.66695808779232</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>27.09102291785832</v>
+        <v>54.30689792267425</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>27.09102291488348</v>
+        <v>54.3372678718271</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>27.09102293375937</v>
+        <v>64.25209748158308</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>27.09102293969922</v>
+        <v>70.36296402548803</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.09102288281213</v>
+        <v>27.02385861755701</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.09102293011287</v>
+        <v>56.1237970839255</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.09102294353367</v>
+        <v>63.91355707614527</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.09102287025108</v>
+        <v>44.00585924002706</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.0910228690679</v>
+        <v>40.85108776179581</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>27.0910228880959</v>
+        <v>49.57661144165674</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.09102289458314</v>
+        <v>56.05918934394396</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.09102283808284</v>
+        <v>17.00799358165178</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>27.09102288558697</v>
+        <v>43.59175514938325</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.09102289923641</v>
+        <v>50.58564733518354</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.09102285248055</v>
+        <v>13.04459172385695</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>27.09102289046759</v>
+        <v>39.75225612102399</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.09102290174321</v>
+        <v>48.07518204753289</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>27.09102285701527</v>
+        <v>12.81125994685069</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>27.09102290003219</v>
+        <v>36.03866014902199</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.09102291280081</v>
+        <v>43.65595208754031</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.09102287160347</v>
+        <v>25.21066015872254</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.09102290994389</v>
+        <v>48.84588558314985</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>27.0910229213244</v>
+        <v>56.57017098724786</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>27.09102291821887</v>
+        <v>56.67967683257952</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.09102293693686</v>
+        <v>66.5642695809676</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.09102294281861</v>
+        <v>72.85981011786058</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.09102288620924</v>
+        <v>28.93399320936523</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.09102293332591</v>
+        <v>58.69428407511433</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.09102294659591</v>
+        <v>66.55869467637513</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.09102285509587</v>
+        <v>37.44821563587939</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.09102285392308</v>
+        <v>32.12385273692146</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>27.09102287287089</v>
+        <v>40.79319841212048</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.09102287947837</v>
+        <v>47.69057904216814</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>27.09102282357466</v>
+        <v>9.707653484491146</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.09102287043614</v>
+        <v>34.84306406499825</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.09102288434106</v>
+        <v>42.68017413907564</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>27.09102283931088</v>
+        <v>8.319071980124811</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>27.09102287678065</v>
+        <v>33.7710330552418</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.09102288825023</v>
+        <v>42.82177271366134</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>27.09102284275394</v>
+        <v>7.460100669015972</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.09102288518508</v>
+        <v>29.39289377801871</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.09102289817335</v>
+        <v>37.72872865447322</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.09102285684916</v>
+        <v>18.64973599434024</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.09102289466749</v>
+        <v>41.11608997914126</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.09102290624375</v>
+        <v>49.56877027893093</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>27.09102290316523</v>
+        <v>47.39984753292703</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>27.09102292181636</v>
+        <v>57.30723416566448</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>27.09102292781908</v>
+        <v>64.08092515020184</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>27.09102287174486</v>
+        <v>21.01256648210602</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>27.09102291826214</v>
+        <v>49.34137275933563</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.09102293180425</v>
+        <v>58.15992160435158</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>27.0910227171555</v>
+        <v>3.274091992564731</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>27.09102275234468</v>
+        <v>23.77582163149149</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.09102276291338</v>
+        <v>28.65426870500668</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.09102271858038</v>
+        <v>2.567516250778574</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>27.09102275842897</v>
+        <v>19.96550471330956</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.09102277039707</v>
+        <v>24.1202234592398</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.09102272720996</v>
+        <v>11.04367567029736</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>27.09102276272649</v>
+        <v>28.52001948297301</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.09102277339351</v>
+        <v>33.03736343254498</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>27.09102277624193</v>
+        <v>28.61754176689505</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.09102279361537</v>
+        <v>34.59546430794564</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.09102279943385</v>
+        <v>38.46977685090688</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>27.09102274922405</v>
+        <v>7.647661634736149</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>27.09102279255022</v>
+        <v>26.93805944293931</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>27.09102280520509</v>
+        <v>32.67036337794949</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.09102278020933</v>
+        <v>2.072154182617265</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.09102282008287</v>
+        <v>25.42159277663112</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>27.09102283240523</v>
+        <v>33.57496855339916</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.09102278111836</v>
+        <v>-2.762998028304111</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.09102282627156</v>
+        <v>16.72209606909544</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>27.09102284022553</v>
+        <v>23.92409754952859</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>27.09102279451034</v>
+        <v>6.850998316076399</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.0910228347548</v>
+        <v>27.09841346180611</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>27.09102273157855</v>
+        <v>9.273473919140592</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.09102276819283</v>
+        <v>32.19974222883458</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>27.09102277876597</v>
+        <v>36.60634219106643</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.09102273496372</v>
+        <v>10.84023885813552</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>27.0910227764261</v>
+        <v>30.72978689396918</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.09102278839923</v>
+        <v>34.40606017418405</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.09102274421104</v>
+        <v>20.38553361625512</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.09102278116592</v>
+        <v>40.14715862350405</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>27.09102279183742</v>
+        <v>44.16965864632205</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.09102279462202</v>
+        <v>41.88377142769479</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>27.09102281241127</v>
+        <v>48.13946713551977</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>27.09102281823931</v>
+        <v>51.94161009700902</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.09102276614472</v>
+        <v>18.3704192191166</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.09102281121997</v>
+        <v>40.49949275356992</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>27.09102282383246</v>
+        <v>45.54706328060546</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.0910227985204</v>
+        <v>11.31586911983495</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>27.09102284000133</v>
+        <v>37.40944753945745</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.09102285235874</v>
+        <v>45.3736020415066</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.09102280166589</v>
+        <v>9.225171056449856</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>27.09102284863931</v>
+        <v>31.48755510502302</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>27.09102286263297</v>
+        <v>38.50035290224615</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.09102281585561</v>
+        <v>20.20869017391358</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.09102285772241</v>
+        <v>43.0415622320058</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>27.09102273531198</v>
+        <v>8.088907464998716</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.0910227717762</v>
+        <v>31.43849893352933</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.09102278223762</v>
+        <v>35.93294852150111</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.09102273921882</v>
+        <v>10.53615900878065</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>27.09102278051127</v>
+        <v>30.88981259714403</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>27.09102279235789</v>
+        <v>34.66063786247185</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.09102274841588</v>
+        <v>20.00191706077643</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>27.0910227852193</v>
+        <v>40.18669730558123</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>27.09102279577804</v>
+        <v>44.28903883027326</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.09102279844522</v>
+        <v>42.21644350904562</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>27.09102281609218</v>
+        <v>48.48107779092693</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>27.09102282186594</v>
+        <v>52.44418451496329</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>27.09102276999083</v>
+        <v>18.22202098177795</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.09102281489351</v>
+        <v>40.94381953128424</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.09102282736469</v>
+        <v>46.0565701054305</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>27.09102280221596</v>
+        <v>10.60053404945027</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.09102284351888</v>
+        <v>37.17565334210863</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.09102285576048</v>
+        <v>45.27742636655699</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>27.09102280594497</v>
+        <v>9.465631234519272</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.09102285271681</v>
+        <v>32.25189688948114</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.09102286657933</v>
+        <v>39.40763816897837</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.09102282005084</v>
+        <v>20.39947821497765</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>27.09102286173797</v>
+        <v>43.71093655978035</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.09102272324998</v>
+        <v>5.218872109054018</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.09102275919308</v>
+        <v>27.36329895076569</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>27.09102276983797</v>
+        <v>32.66641254270144</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.09102272608505</v>
+        <v>7.625164394812426</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.09102276678739</v>
+        <v>26.72528015071986</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>27.09102277884177</v>
+        <v>31.31974223016924</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>27.09102273485609</v>
+        <v>15.95357411324082</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.09102277113355</v>
+        <v>35.00808356525236</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>27.09102278187746</v>
+        <v>39.91935828147643</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>27.09102278447022</v>
+        <v>35.65751966363604</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>27.09102280203799</v>
+        <v>41.83345475295165</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>27.09102280791854</v>
+        <v>46.25953717904225</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>27.09102275665738</v>
+        <v>13.01642779339053</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.09102280094194</v>
+        <v>34.41580190376585</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.09102281366729</v>
+        <v>40.53871513568812</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.09102278822503</v>
+        <v>5.758551539972281</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.0910228289438</v>
+        <v>30.98939676205962</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>27.09102284138335</v>
+        <v>39.73462619431198</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>27.09102279070716</v>
+        <v>4.138447590812241</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.09102283681752</v>
+        <v>25.55422450590458</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.09102285090418</v>
+        <v>33.34826973162495</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>27.09102280429573</v>
+        <v>13.75299982338476</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.09102284539329</v>
+        <v>35.81002528872308</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>27.09102284719178</v>
+        <v>34.78566745430372</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.09102284602884</v>
+        <v>29.52350843201519</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.09102286610933</v>
+        <v>38.89315471565225</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.09102287299984</v>
+        <v>44.97611906153811</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.09102281388722</v>
+        <v>5.72990731857363</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.09102286349577</v>
+        <v>31.3452528870218</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.09102287811199</v>
+        <v>38.75147585889472</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.09102283204633</v>
+        <v>2.557508710486889</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.09102287175459</v>
+        <v>28.91485436967016</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.09102288378641</v>
+        <v>37.78795496615869</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.09102283365493</v>
+        <v>-2.237754564710546</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>27.09102287862096</v>
+        <v>20.36806115600051</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>27.09102289224592</v>
+        <v>28.39091230599513</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.09102284890416</v>
+        <v>10.48011725767033</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>27.09102288898179</v>
+        <v>33.71713445791436</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.09102290112554</v>
+        <v>42.00733586956539</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.09102289796605</v>
+        <v>39.7767940499527</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.09102291774376</v>
+        <v>50.55066460031943</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>27.09102292401541</v>
+        <v>56.55753964173194</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>27.09102286471494</v>
+        <v>12.18074289178075</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.09102291395979</v>
+        <v>41.13723797829682</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.09102292822219</v>
+        <v>49.67658710883514</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>27.09102287019478</v>
+        <v>50.51538358944011</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.09102286868649</v>
+        <v>47.07086081542255</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.09102288923254</v>
+        <v>56.7357560232323</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>27.091022896136</v>
+        <v>62.84279857109454</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>27.09102283496602</v>
+        <v>20.68760678652209</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.09102288654618</v>
+        <v>49.66080883935948</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.09102290114397</v>
+        <v>56.56628561720522</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.09102285181636</v>
+        <v>15.16853997270455</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>27.09102289311473</v>
+        <v>44.42247000598705</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.09102290514528</v>
+        <v>52.89636258177944</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>27.09102285558412</v>
+        <v>13.48263906863656</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>27.09102290235081</v>
+        <v>39.0462613469098</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>27.09102291597434</v>
+        <v>46.68020233593302</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>27.09102287166311</v>
+        <v>27.74308254906407</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>27.09102291334565</v>
+        <v>53.70834430713316</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>27.09102292548812</v>
+        <v>61.57787964679174</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>27.09102292192362</v>
+        <v>61.42695179311631</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>27.09102294214974</v>
+        <v>72.42976317478777</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>27.09102294841646</v>
+        <v>78.38663502410743</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.09102288709937</v>
+        <v>31.01654463396579</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>27.09102293827806</v>
+        <v>63.45142291005556</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.09102295247729</v>
+        <v>71.32904623748641</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>27.09102287409345</v>
+        <v>51.31330297863353</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>27.09102287243802</v>
+        <v>47.90034816923275</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>27.09102289281156</v>
+        <v>57.55769452983338</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.09102289965401</v>
+        <v>63.86630289066147</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>27.09102283879201</v>
+        <v>21.15355323057952</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.09102289015874</v>
+        <v>50.79269601785381</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>27.09102290460791</v>
+        <v>57.80792399830904</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.09102285527596</v>
+        <v>15.77486004035412</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>27.09102289640562</v>
+        <v>45.54443817009623</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.0910229083098</v>
+        <v>54.10020244217989</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.0910228595994</v>
+        <v>15.17118047767826</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.09102290617505</v>
+        <v>41.29853052637883</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.09102291965547</v>
+        <v>49.02037016423842</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>27.09102287558396</v>
+        <v>29.419751011667</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.09102291709623</v>
+        <v>55.89451824016954</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.09102292911115</v>
+        <v>63.83951129703707</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>27.09102292541512</v>
+        <v>63.78998950136188</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>27.09102294547204</v>
+        <v>74.76418291669023</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.09102295167844</v>
+        <v>80.91262658259825</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>27.09102289066453</v>
+        <v>32.92563065119307</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.09102294164053</v>
+        <v>66.06001517878279</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.09102295567824</v>
+        <v>74.00049618880482</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.09102285794855</v>
+        <v>44.05678063497784</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.09102285630554</v>
+        <v>38.36054959252157</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.09102287659059</v>
+        <v>47.94263925928791</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.09102288356177</v>
+        <v>54.70405489060764</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.0910228233337</v>
+        <v>13.1649369735393</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.09102287401251</v>
+        <v>41.22317441268488</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.09102288874009</v>
+        <v>49.15071339686179</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.09102284121717</v>
+        <v>10.62314324124785</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>27.09102288179177</v>
+        <v>39.02063280360534</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.09102289390892</v>
+        <v>48.36793094735329</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>27.0910228443762</v>
+        <v>9.362614518333924</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.09102289032329</v>
+        <v>34.07257874498446</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.09102290404488</v>
+        <v>42.57657158734827</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>27.0910228598539</v>
+        <v>22.29064326228119</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.09102290080595</v>
+        <v>47.48712430342339</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.09102291303582</v>
+        <v>56.22341365862253</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>27.09102290937165</v>
+        <v>53.76639328555503</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>27.09102292935297</v>
+        <v>64.74981377768098</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.09102293568963</v>
+        <v>71.41694642712847</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>27.09102287524599</v>
+        <v>24.37963987308866</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>27.09102292557934</v>
+        <v>55.95059837572176</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.09102293991371</v>
+        <v>64.92895395796825</v>
       </c>
     </row>
   </sheetData>
